--- a/prophet_automation/final_report.xlsx
+++ b/prophet_automation/final_report.xlsx
@@ -202,7 +202,7 @@
       <sz val="10"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="15">
     <fill>
       <patternFill/>
     </fill>
@@ -285,12 +285,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF00FFFF"/>
         <bgColor rgb="FF00FFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFF00"/>
-        <bgColor rgb="00FFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -758,7 +752,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="262">
+  <cellXfs count="259">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -1379,9 +1373,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -1392,16 +1383,10 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
@@ -1875,12 +1860,12 @@
       </c>
       <c r="J2" s="13" t="inlineStr">
         <is>
-          <t>Imp Count For 2022-12-01</t>
+          <t>Imp Count For 2022-11-30</t>
         </is>
       </c>
       <c r="K2" s="13" t="inlineStr">
         <is>
-          <t>Imp Count For 2021-12-01</t>
+          <t>Imp Count For 2021-11-30</t>
         </is>
       </c>
       <c r="L2" s="14" t="inlineStr">
@@ -1917,7 +1902,7 @@
           <t>2775917869</t>
         </is>
       </c>
-      <c r="E3" s="230" t="inlineStr">
+      <c r="E3" s="22" t="inlineStr">
         <is>
           <t>Drop 19.4 %</t>
         </is>
@@ -1970,7 +1955,7 @@
       <c r="W3" s="9" t="n"/>
     </row>
     <row r="4" ht="15.75" customHeight="1" s="220">
-      <c r="A4" s="231" t="n"/>
+      <c r="A4" s="230" t="n"/>
       <c r="B4" s="22" t="n"/>
       <c r="C4" s="22" t="n"/>
       <c r="D4" s="22" t="n"/>
@@ -1995,12 +1980,12 @@
       <c r="W4" s="9" t="n"/>
     </row>
     <row r="5" ht="15.75" customHeight="1" s="220">
-      <c r="A5" s="232" t="inlineStr">
+      <c r="A5" s="231" t="inlineStr">
         <is>
           <t>Linkedin</t>
         </is>
       </c>
-      <c r="B5" s="233" t="inlineStr">
+      <c r="B5" s="232" t="inlineStr">
         <is>
           <t>SnowFlake</t>
         </is>
@@ -2009,7 +1994,7 @@
       <c r="D5" s="227" t="n"/>
       <c r="E5" s="227" t="n"/>
       <c r="F5" s="228" t="n"/>
-      <c r="G5" s="234" t="inlineStr">
+      <c r="G5" s="233" t="inlineStr">
         <is>
           <t>Athena/S3</t>
         </is>
@@ -2079,12 +2064,12 @@
       </c>
       <c r="J6" s="13" t="inlineStr">
         <is>
-          <t>Imp Count For 2022-12-01</t>
+          <t>Imp Count For 2022-11-30</t>
         </is>
       </c>
       <c r="K6" s="13" t="inlineStr">
         <is>
-          <t>Imp Count For 2021-12-01</t>
+          <t>Imp Count For 2021-11-30</t>
         </is>
       </c>
       <c r="L6" s="14" t="inlineStr">
@@ -2121,7 +2106,7 @@
           <t>2775917869</t>
         </is>
       </c>
-      <c r="E7" s="230" t="inlineStr">
+      <c r="E7" s="22" t="inlineStr">
         <is>
           <t>Drop 19.4 %</t>
         </is>
@@ -2174,7 +2159,7 @@
       <c r="W7" s="9" t="n"/>
     </row>
     <row r="8" ht="15.75" customHeight="1" s="220">
-      <c r="A8" s="231" t="n"/>
+      <c r="A8" s="230" t="n"/>
       <c r="B8" s="34" t="n"/>
       <c r="C8" s="34" t="n"/>
       <c r="D8" s="34" t="n"/>
@@ -2199,12 +2184,12 @@
       <c r="W8" s="9" t="n"/>
     </row>
     <row r="9" ht="15.75" customHeight="1" s="220">
-      <c r="A9" s="232" t="inlineStr">
+      <c r="A9" s="231" t="inlineStr">
         <is>
           <t>Spotify</t>
         </is>
       </c>
-      <c r="B9" s="233" t="inlineStr">
+      <c r="B9" s="232" t="inlineStr">
         <is>
           <t>SnowFlake</t>
         </is>
@@ -2213,7 +2198,7 @@
       <c r="D9" s="227" t="n"/>
       <c r="E9" s="227" t="n"/>
       <c r="F9" s="228" t="n"/>
-      <c r="G9" s="234" t="inlineStr">
+      <c r="G9" s="233" t="inlineStr">
         <is>
           <t>Athena/S3</t>
         </is>
@@ -2283,12 +2268,12 @@
       </c>
       <c r="J10" s="13" t="inlineStr">
         <is>
-          <t>Imp Count For 2022-12-01</t>
+          <t>Imp Count For 2022-11-30</t>
         </is>
       </c>
       <c r="K10" s="13" t="inlineStr">
         <is>
-          <t>Imp Count For 2021-12-01</t>
+          <t>Imp Count For 2021-11-30</t>
         </is>
       </c>
       <c r="L10" s="14" t="inlineStr">
@@ -2325,7 +2310,7 @@
           <t>2775917869</t>
         </is>
       </c>
-      <c r="E11" s="230" t="inlineStr">
+      <c r="E11" s="22" t="inlineStr">
         <is>
           <t>Drop 19.4 %</t>
         </is>
@@ -2377,7 +2362,7 @@
       <c r="W11" s="9" t="n"/>
     </row>
     <row r="12" ht="15.75" customHeight="1" s="220">
-      <c r="A12" s="231" t="n"/>
+      <c r="A12" s="230" t="n"/>
       <c r="B12" s="34" t="n"/>
       <c r="C12" s="34" t="n"/>
       <c r="D12" s="34" t="n"/>
@@ -2402,12 +2387,12 @@
       <c r="W12" s="9" t="n"/>
     </row>
     <row r="13" ht="15.75" customHeight="1" s="220">
-      <c r="A13" s="232" t="inlineStr">
+      <c r="A13" s="231" t="inlineStr">
         <is>
           <t>Snapchat</t>
         </is>
       </c>
-      <c r="B13" s="233" t="inlineStr">
+      <c r="B13" s="232" t="inlineStr">
         <is>
           <t>SnowFlake</t>
         </is>
@@ -2416,7 +2401,7 @@
       <c r="D13" s="227" t="n"/>
       <c r="E13" s="227" t="n"/>
       <c r="F13" s="228" t="n"/>
-      <c r="G13" s="234" t="inlineStr">
+      <c r="G13" s="233" t="inlineStr">
         <is>
           <t>Athena/S3</t>
         </is>
@@ -2486,12 +2471,12 @@
       </c>
       <c r="J14" s="13" t="inlineStr">
         <is>
-          <t>Imp Count For 2022-12-01</t>
+          <t>Imp Count For 2022-11-30</t>
         </is>
       </c>
       <c r="K14" s="13" t="inlineStr">
         <is>
-          <t>Imp Count For 2021-12-01</t>
+          <t>Imp Count For 2021-11-30</t>
         </is>
       </c>
       <c r="L14" s="14" t="inlineStr">
@@ -2528,7 +2513,7 @@
           <t>2775917869</t>
         </is>
       </c>
-      <c r="E15" s="230" t="inlineStr">
+      <c r="E15" s="22" t="inlineStr">
         <is>
           <t>Drop 19.4 %</t>
         </is>
@@ -2581,7 +2566,7 @@
       <c r="W15" s="9" t="n"/>
     </row>
     <row r="16" ht="15.75" customHeight="1" s="220">
-      <c r="A16" s="231" t="n"/>
+      <c r="A16" s="230" t="n"/>
       <c r="B16" s="34" t="n"/>
       <c r="C16" s="34" t="n"/>
       <c r="D16" s="34" t="n"/>
@@ -2606,12 +2591,12 @@
       <c r="W16" s="9" t="n"/>
     </row>
     <row r="17" ht="15.75" customHeight="1" s="220">
-      <c r="A17" s="232" t="inlineStr">
+      <c r="A17" s="231" t="inlineStr">
         <is>
           <t>Twitter</t>
         </is>
       </c>
-      <c r="B17" s="233" t="inlineStr">
+      <c r="B17" s="232" t="inlineStr">
         <is>
           <t>SnowFlake</t>
         </is>
@@ -2674,12 +2659,12 @@
       <c r="I18" s="34" t="n"/>
       <c r="J18" s="13" t="inlineStr">
         <is>
-          <t>Imp Count For 2022-12-01</t>
+          <t>Imp Count For 2022-11-30</t>
         </is>
       </c>
       <c r="K18" s="13" t="inlineStr">
         <is>
-          <t>Imp Count For 2021-12-01</t>
+          <t>Imp Count For 2021-11-30</t>
         </is>
       </c>
       <c r="L18" s="14" t="inlineStr">
@@ -2716,7 +2701,7 @@
           <t>2775917869</t>
         </is>
       </c>
-      <c r="E19" s="230" t="inlineStr">
+      <c r="E19" s="22" t="inlineStr">
         <is>
           <t>Drop 19.4 %</t>
         </is>
@@ -2757,7 +2742,7 @@
       <c r="W19" s="9" t="n"/>
     </row>
     <row r="20" ht="15.75" customHeight="1" s="220">
-      <c r="A20" s="231" t="n"/>
+      <c r="A20" s="230" t="n"/>
       <c r="B20" s="34" t="n"/>
       <c r="C20" s="34" t="n"/>
       <c r="D20" s="34" t="n"/>
@@ -2782,12 +2767,12 @@
       <c r="W20" s="9" t="n"/>
     </row>
     <row r="21" ht="15.75" customHeight="1" s="220">
-      <c r="A21" s="232" t="inlineStr">
+      <c r="A21" s="231" t="inlineStr">
         <is>
           <t>Facebook</t>
         </is>
       </c>
-      <c r="B21" s="233" t="inlineStr">
+      <c r="B21" s="232" t="inlineStr">
         <is>
           <t>SnowFlake</t>
         </is>
@@ -2796,7 +2781,7 @@
       <c r="D21" s="227" t="n"/>
       <c r="E21" s="227" t="n"/>
       <c r="F21" s="228" t="n"/>
-      <c r="G21" s="234" t="inlineStr">
+      <c r="G21" s="233" t="inlineStr">
         <is>
           <t>Athena/S3</t>
         </is>
@@ -2866,12 +2851,12 @@
       </c>
       <c r="J22" s="13" t="inlineStr">
         <is>
-          <t>Imp Count For 2022-11-30</t>
+          <t>Imp Count For 2022-11-29</t>
         </is>
       </c>
       <c r="K22" s="13" t="inlineStr">
         <is>
-          <t>Imp Count For 2021-11-30</t>
+          <t>Imp Count For 2021-11-29</t>
         </is>
       </c>
       <c r="L22" s="14" t="inlineStr">
@@ -2908,7 +2893,7 @@
           <t>2775917869</t>
         </is>
       </c>
-      <c r="E23" s="230" t="inlineStr">
+      <c r="E23" s="22" t="inlineStr">
         <is>
           <t>Drop 19.4 %</t>
         </is>
@@ -2961,7 +2946,7 @@
       <c r="W23" s="9" t="n"/>
     </row>
     <row r="24" ht="15.75" customHeight="1" s="220">
-      <c r="A24" s="231" t="n"/>
+      <c r="A24" s="230" t="n"/>
       <c r="B24" s="34" t="n"/>
       <c r="C24" s="34" t="n"/>
       <c r="D24" s="34" t="n"/>
@@ -2986,12 +2971,12 @@
       <c r="W24" s="9" t="n"/>
     </row>
     <row r="25" ht="15.75" customHeight="1" s="220">
-      <c r="A25" s="232" t="inlineStr">
+      <c r="A25" s="231" t="inlineStr">
         <is>
           <t>Youtube - Google Ads</t>
         </is>
       </c>
-      <c r="B25" s="233" t="inlineStr">
+      <c r="B25" s="232" t="inlineStr">
         <is>
           <t>SnowFlake</t>
         </is>
@@ -3080,7 +3065,7 @@
           <t>2775917869</t>
         </is>
       </c>
-      <c r="E27" s="235" t="inlineStr">
+      <c r="E27" s="120" t="inlineStr">
         <is>
           <t>Drop 19.4 %</t>
         </is>
@@ -3109,7 +3094,7 @@
       <c r="W27" s="9" t="n"/>
     </row>
     <row r="28" ht="15.75" customHeight="1" s="220">
-      <c r="A28" s="231" t="n"/>
+      <c r="A28" s="230" t="n"/>
       <c r="B28" s="34" t="n"/>
       <c r="C28" s="34" t="n"/>
       <c r="D28" s="34" t="n"/>
@@ -3134,12 +3119,12 @@
       <c r="W28" s="9" t="n"/>
     </row>
     <row r="29" ht="15.75" customHeight="1" s="220">
-      <c r="A29" s="232" t="inlineStr">
+      <c r="A29" s="231" t="inlineStr">
         <is>
           <t>Youtube - DV 360</t>
         </is>
       </c>
-      <c r="B29" s="233" t="inlineStr">
+      <c r="B29" s="232" t="inlineStr">
         <is>
           <t>SnowFlake</t>
         </is>
@@ -3228,7 +3213,7 @@
           <t>2775917869</t>
         </is>
       </c>
-      <c r="E31" s="235" t="inlineStr">
+      <c r="E31" s="120" t="inlineStr">
         <is>
           <t>Drop 19.4 %</t>
         </is>
@@ -3257,7 +3242,7 @@
       <c r="W31" s="9" t="n"/>
     </row>
     <row r="32" ht="15.75" customHeight="1" s="220">
-      <c r="A32" s="231" t="n"/>
+      <c r="A32" s="230" t="n"/>
       <c r="B32" s="34" t="n"/>
       <c r="C32" s="34" t="n"/>
       <c r="D32" s="34" t="n"/>
@@ -3282,12 +3267,12 @@
       <c r="W32" s="9" t="n"/>
     </row>
     <row r="33" ht="15.75" customHeight="1" s="220">
-      <c r="A33" s="232" t="inlineStr">
+      <c r="A33" s="231" t="inlineStr">
         <is>
           <t>Youtube - Partner Sold</t>
         </is>
       </c>
-      <c r="B33" s="233" t="inlineStr">
+      <c r="B33" s="232" t="inlineStr">
         <is>
           <t>SnowFlake</t>
         </is>
@@ -3376,7 +3361,7 @@
           <t>2775917869</t>
         </is>
       </c>
-      <c r="E35" s="235" t="inlineStr">
+      <c r="E35" s="120" t="inlineStr">
         <is>
           <t>Drop 19.4 %</t>
         </is>
@@ -3405,7 +3390,7 @@
       <c r="W35" s="9" t="n"/>
     </row>
     <row r="36" ht="15.75" customHeight="1" s="220">
-      <c r="A36" s="231" t="n"/>
+      <c r="A36" s="230" t="n"/>
       <c r="B36" s="34" t="n"/>
       <c r="C36" s="34" t="n"/>
       <c r="D36" s="34" t="n"/>
@@ -3430,12 +3415,12 @@
       <c r="W36" s="9" t="n"/>
     </row>
     <row r="37" ht="15.75" customHeight="1" s="220">
-      <c r="A37" s="232" t="inlineStr">
+      <c r="A37" s="231" t="inlineStr">
         <is>
           <t>Youtube - Reserve</t>
         </is>
       </c>
-      <c r="B37" s="233" t="inlineStr">
+      <c r="B37" s="232" t="inlineStr">
         <is>
           <t>SnowFlake</t>
         </is>
@@ -3524,7 +3509,7 @@
           <t>2775917869</t>
         </is>
       </c>
-      <c r="E39" s="235" t="inlineStr">
+      <c r="E39" s="120" t="inlineStr">
         <is>
           <t>Drop 19.4 %</t>
         </is>
@@ -3553,7 +3538,7 @@
       <c r="W39" s="9" t="n"/>
     </row>
     <row r="40" ht="15.75" customHeight="1" s="220">
-      <c r="A40" s="231" t="n"/>
+      <c r="A40" s="230" t="n"/>
       <c r="B40" s="34" t="n"/>
       <c r="C40" s="34" t="n"/>
       <c r="D40" s="34" t="n"/>
@@ -3578,12 +3563,12 @@
       <c r="W40" s="9" t="n"/>
     </row>
     <row r="41" ht="15.75" customHeight="1" s="220">
-      <c r="A41" s="236" t="inlineStr">
+      <c r="A41" s="234" t="inlineStr">
         <is>
           <t>Yahoo</t>
         </is>
       </c>
-      <c r="B41" s="233" t="inlineStr">
+      <c r="B41" s="232" t="inlineStr">
         <is>
           <t>SnowFlake</t>
         </is>
@@ -3592,7 +3577,7 @@
       <c r="D41" s="227" t="n"/>
       <c r="E41" s="227" t="n"/>
       <c r="F41" s="228" t="n"/>
-      <c r="G41" s="234" t="inlineStr">
+      <c r="G41" s="233" t="inlineStr">
         <is>
           <t>Athena/S3</t>
         </is>
@@ -3662,12 +3647,12 @@
       </c>
       <c r="J42" s="13" t="inlineStr">
         <is>
-          <t>Imp Count For 2022-12-01</t>
+          <t>Imp Count For 2022-11-30</t>
         </is>
       </c>
       <c r="K42" s="13" t="inlineStr">
         <is>
-          <t>Imp Count For 2021-12-01</t>
+          <t>Imp Count For 2021-11-30</t>
         </is>
       </c>
       <c r="L42" s="14" t="inlineStr">
@@ -3688,7 +3673,7 @@
       <c r="W42" s="9" t="n"/>
     </row>
     <row r="43" ht="15.75" customHeight="1" s="220">
-      <c r="A43" s="237" t="n"/>
+      <c r="A43" s="235" t="n"/>
       <c r="B43" s="49" t="inlineStr">
         <is>
           <t>3154448608</t>
@@ -3704,7 +3689,7 @@
           <t>2775917869</t>
         </is>
       </c>
-      <c r="E43" s="238" t="inlineStr">
+      <c r="E43" s="50" t="inlineStr">
         <is>
           <t>Drop 19.4 %</t>
         </is>
@@ -9706,7 +9691,7 @@
   </cols>
   <sheetData>
     <row r="5">
-      <c r="A5" s="239" t="inlineStr">
+      <c r="A5" s="236" t="inlineStr">
         <is>
           <t>PowerBI</t>
         </is>
@@ -9758,7 +9743,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="240" t="inlineStr">
+      <c r="A12" s="237" t="inlineStr">
         <is>
           <t>Snowflake:</t>
         </is>
@@ -9810,7 +9795,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="241" t="n">
+      <c r="A15" s="238" t="n">
         <v>44903</v>
       </c>
       <c r="B15" s="57" t="inlineStr">
@@ -9830,7 +9815,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="242" t="n"/>
+      <c r="A16" s="239" t="n"/>
       <c r="B16" s="64" t="inlineStr">
         <is>
           <t>Youtube - Reserve</t>
@@ -9848,7 +9833,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="239" t="inlineStr">
+      <c r="A19" s="236" t="inlineStr">
         <is>
           <t>Athena</t>
         </is>
@@ -9904,7 +9889,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="243" t="inlineStr">
+      <c r="A24" s="240" t="inlineStr">
         <is>
           <t>Discrepancies between Snowflake and partner_raw tables.</t>
         </is>
@@ -9959,7 +9944,7 @@
           <t>Pinterest</t>
         </is>
       </c>
-      <c r="B26" s="244" t="n">
+      <c r="B26" s="241" t="n">
         <v>44903</v>
       </c>
       <c r="C26" s="120" t="n">
@@ -9992,7 +9977,7 @@
           <t>LinkedIn</t>
         </is>
       </c>
-      <c r="B27" s="245" t="n"/>
+      <c r="B27" s="242" t="n"/>
       <c r="C27" s="120" t="inlineStr">
         <is>
           <t>NA</t>
@@ -10025,7 +10010,7 @@
           <t>Spotify</t>
         </is>
       </c>
-      <c r="B28" s="245" t="n"/>
+      <c r="B28" s="242" t="n"/>
       <c r="C28" s="120" t="n">
         <v>4396920</v>
       </c>
@@ -10053,7 +10038,7 @@
           <t>Snapchat</t>
         </is>
       </c>
-      <c r="B29" s="242" t="n"/>
+      <c r="B29" s="239" t="n"/>
       <c r="C29" s="120" t="n">
         <v>70584459</v>
       </c>
@@ -10106,7 +10091,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="246" t="inlineStr">
+      <c r="A36" s="243" t="inlineStr">
         <is>
           <t>Facebook Missing Files/hours stats:</t>
         </is>
@@ -10120,7 +10105,7 @@
           <t>Data Files/Date</t>
         </is>
       </c>
-      <c r="B37" s="247" t="n">
+      <c r="B37" s="244" t="n">
         <v>44902</v>
       </c>
       <c r="C37" s="228" t="n"/>
@@ -10131,7 +10116,7 @@
           <t>an_init</t>
         </is>
       </c>
-      <c r="B38" s="248" t="inlineStr">
+      <c r="B38" s="245" t="inlineStr">
         <is>
           <t>ALL OK</t>
         </is>
@@ -10144,7 +10129,7 @@
           <t>an_player</t>
         </is>
       </c>
-      <c r="B39" s="248" t="inlineStr">
+      <c r="B39" s="245" t="inlineStr">
         <is>
           <t>ALL OK</t>
         </is>
@@ -10157,7 +10142,7 @@
           <t>fb_display</t>
         </is>
       </c>
-      <c r="B40" s="248" t="inlineStr">
+      <c r="B40" s="245" t="inlineStr">
         <is>
           <t>ALL OK</t>
         </is>
@@ -10170,7 +10155,7 @@
           <t>fb_init</t>
         </is>
       </c>
-      <c r="B41" s="248" t="inlineStr">
+      <c r="B41" s="245" t="inlineStr">
         <is>
           <t>18,20,21,22,23</t>
         </is>
@@ -10183,7 +10168,7 @@
           <t>fb_player</t>
         </is>
       </c>
-      <c r="B42" s="248" t="inlineStr">
+      <c r="B42" s="245" t="inlineStr">
         <is>
           <t>ALL OK</t>
         </is>
@@ -10196,7 +10181,7 @@
           <t>ig_display</t>
         </is>
       </c>
-      <c r="B43" s="248" t="inlineStr">
+      <c r="B43" s="245" t="inlineStr">
         <is>
           <t>ALL OK</t>
         </is>
@@ -10209,7 +10194,7 @@
           <t>ig_init</t>
         </is>
       </c>
-      <c r="B44" s="248" t="n">
+      <c r="B44" s="245" t="n">
         <v>22</v>
       </c>
       <c r="C44" s="228" t="n"/>
@@ -10220,7 +10205,7 @@
           <t>ig_player</t>
         </is>
       </c>
-      <c r="B45" s="248" t="inlineStr">
+      <c r="B45" s="245" t="inlineStr">
         <is>
           <t>ALL OK</t>
         </is>
@@ -10228,7 +10213,7 @@
       <c r="C45" s="228" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="246" t="inlineStr">
+      <c r="A46" s="243" t="inlineStr">
         <is>
           <t>Note: The numbers shown above are missing hours</t>
         </is>
@@ -10435,7 +10420,7 @@
       <c r="J15" s="81" t="n"/>
     </row>
     <row r="16" ht="15.75" customHeight="1" s="220">
-      <c r="B16" s="231" t="n"/>
+      <c r="B16" s="230" t="n"/>
       <c r="C16" s="92" t="inlineStr">
         <is>
           <t>Yahoo</t>
@@ -10494,7 +10479,7 @@
       <c r="J18" s="83" t="n"/>
     </row>
     <row r="19" ht="15.75" customHeight="1" s="220">
-      <c r="B19" s="231" t="n"/>
+      <c r="B19" s="230" t="n"/>
       <c r="C19" s="92" t="inlineStr">
         <is>
           <t>Yahoo</t>
@@ -10680,7 +10665,7 @@
           <t>Pinterest</t>
         </is>
       </c>
-      <c r="C31" s="249" t="n">
+      <c r="C31" s="246" t="n">
         <v>44897</v>
       </c>
       <c r="D31" s="120" t="n">
@@ -10713,7 +10698,7 @@
           <t>LinkedIn</t>
         </is>
       </c>
-      <c r="C32" s="245" t="n"/>
+      <c r="C32" s="242" t="n"/>
       <c r="D32" s="120" t="n">
         <v>2236373</v>
       </c>
@@ -10744,7 +10729,7 @@
           <t>Spotify</t>
         </is>
       </c>
-      <c r="C33" s="245" t="n"/>
+      <c r="C33" s="242" t="n"/>
       <c r="D33" s="120" t="n">
         <v>13022050</v>
       </c>
@@ -10772,7 +10757,7 @@
           <t>Snapchat</t>
         </is>
       </c>
-      <c r="C34" s="242" t="n"/>
+      <c r="C34" s="239" t="n"/>
       <c r="D34" s="120" t="n">
         <v>77688003</v>
       </c>
@@ -10830,7 +10815,7 @@
           <t>Pinterest</t>
         </is>
       </c>
-      <c r="C36" s="249" t="n">
+      <c r="C36" s="246" t="n">
         <v>44898</v>
       </c>
       <c r="D36" s="34" t="n">
@@ -10863,7 +10848,7 @@
           <t>LinkedIn</t>
         </is>
       </c>
-      <c r="C37" s="245" t="n"/>
+      <c r="C37" s="242" t="n"/>
       <c r="D37" s="34" t="n">
         <v>1238234</v>
       </c>
@@ -10894,7 +10879,7 @@
           <t>Spotify</t>
         </is>
       </c>
-      <c r="C38" s="245" t="n"/>
+      <c r="C38" s="242" t="n"/>
       <c r="D38" s="34" t="n">
         <v>3952844</v>
       </c>
@@ -10922,7 +10907,7 @@
           <t>Snapchat</t>
         </is>
       </c>
-      <c r="C39" s="242" t="n"/>
+      <c r="C39" s="239" t="n"/>
       <c r="D39" s="34" t="n">
         <v>84516184</v>
       </c>
@@ -10980,7 +10965,7 @@
           <t>Pinterest</t>
         </is>
       </c>
-      <c r="C41" s="249" t="n">
+      <c r="C41" s="246" t="n">
         <v>44899</v>
       </c>
       <c r="D41" s="34" t="n">
@@ -11013,7 +10998,7 @@
           <t>LinkedIn</t>
         </is>
       </c>
-      <c r="C42" s="245" t="n"/>
+      <c r="C42" s="242" t="n"/>
       <c r="D42" s="34" t="n">
         <v>1452583</v>
       </c>
@@ -11044,7 +11029,7 @@
           <t>Spotify</t>
         </is>
       </c>
-      <c r="C43" s="245" t="n"/>
+      <c r="C43" s="242" t="n"/>
       <c r="D43" s="34" t="n">
         <v>4032790</v>
       </c>
@@ -11072,7 +11057,7 @@
           <t>Snapchat</t>
         </is>
       </c>
-      <c r="C44" s="242" t="n"/>
+      <c r="C44" s="239" t="n"/>
       <c r="D44" s="34" t="n">
         <v>82217411</v>
       </c>
@@ -11694,7 +11679,7 @@
     </row>
     <row r="83" ht="15.75" customHeight="1" s="220">
       <c r="A83" s="143" t="n"/>
-      <c r="B83" s="231" t="n"/>
+      <c r="B83" s="230" t="n"/>
       <c r="C83" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">Twitter </t>
@@ -11735,7 +11720,7 @@
       <c r="D88" s="109" t="n"/>
     </row>
     <row r="89" ht="15.75" customHeight="1" s="220">
-      <c r="B89" s="250" t="n"/>
+      <c r="B89" s="247" t="n"/>
       <c r="C89" s="156" t="n"/>
     </row>
     <row r="90" ht="15.75" customHeight="1" s="220">
@@ -11831,7 +11816,7 @@
       </c>
     </row>
     <row r="98" ht="15.75" customHeight="1" s="220">
-      <c r="B98" s="231" t="n"/>
+      <c r="B98" s="230" t="n"/>
       <c r="C98" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">Twitter </t>
@@ -11869,7 +11854,7 @@
       </c>
     </row>
     <row r="100" ht="15.75" customHeight="1" s="220">
-      <c r="B100" s="231" t="n"/>
+      <c r="B100" s="230" t="n"/>
       <c r="C100" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">Twitter </t>
@@ -11908,7 +11893,7 @@
     </row>
     <row r="102" ht="15.75" customHeight="1" s="220">
       <c r="B102" s="163" t="n"/>
-      <c r="C102" s="250" t="n"/>
+      <c r="C102" s="247" t="n"/>
       <c r="F102" s="140" t="n"/>
       <c r="G102" s="140" t="n"/>
       <c r="H102" s="140" t="n"/>
@@ -12206,7 +12191,7 @@
       </c>
     </row>
     <row r="125" ht="15.75" customHeight="1" s="220">
-      <c r="B125" s="237" t="n"/>
+      <c r="B125" s="235" t="n"/>
       <c r="C125" s="101" t="inlineStr">
         <is>
           <t xml:space="preserve">Twitter </t>
@@ -12403,7 +12388,7 @@
           <t>Pinterest</t>
         </is>
       </c>
-      <c r="C144" s="249" t="n">
+      <c r="C144" s="246" t="n">
         <v>44899</v>
       </c>
     </row>
@@ -12413,7 +12398,7 @@
           <t>LinkedIn</t>
         </is>
       </c>
-      <c r="C145" s="245" t="n"/>
+      <c r="C145" s="242" t="n"/>
     </row>
     <row r="146" ht="15.75" customHeight="1" s="220">
       <c r="B146" s="118" t="inlineStr">
@@ -12421,7 +12406,7 @@
           <t>Spotify</t>
         </is>
       </c>
-      <c r="C146" s="245" t="n"/>
+      <c r="C146" s="242" t="n"/>
       <c r="D146" s="112" t="n"/>
     </row>
     <row r="147" ht="15.75" customHeight="1" s="220">
@@ -12430,7 +12415,7 @@
           <t>Snapchat</t>
         </is>
       </c>
-      <c r="C147" s="242" t="n"/>
+      <c r="C147" s="239" t="n"/>
       <c r="D147" s="162" t="inlineStr">
         <is>
           <t>DoD Drop</t>
@@ -13610,12 +13595,12 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" s="220">
-      <c r="A1" s="251" t="inlineStr">
+      <c r="A1" s="248" t="inlineStr">
         <is>
           <t>Pinterest</t>
         </is>
       </c>
-      <c r="B1" s="233" t="inlineStr">
+      <c r="B1" s="232" t="inlineStr">
         <is>
           <t>SnowFlake</t>
         </is>
@@ -13624,21 +13609,21 @@
       <c r="D1" s="227" t="n"/>
       <c r="E1" s="227" t="n"/>
       <c r="F1" s="228" t="n"/>
-      <c r="G1" s="234" t="inlineStr">
+      <c r="G1" s="233" t="inlineStr">
         <is>
           <t>Athena/S3</t>
         </is>
       </c>
       <c r="H1" s="227" t="n"/>
       <c r="I1" s="228" t="n"/>
-      <c r="J1" s="252" t="inlineStr">
+      <c r="J1" s="249" t="inlineStr">
         <is>
           <t>Looker</t>
         </is>
       </c>
       <c r="K1" s="227" t="n"/>
       <c r="L1" s="228" t="n"/>
-      <c r="M1" s="253" t="inlineStr">
+      <c r="M1" s="250" t="inlineStr">
         <is>
           <t>Power BI</t>
         </is>
@@ -13658,7 +13643,7 @@
       <c r="Z1" s="9" t="n"/>
     </row>
     <row r="2" ht="15.75" customHeight="1" s="220">
-      <c r="A2" s="245" t="n"/>
+      <c r="A2" s="242" t="n"/>
       <c r="B2" s="39" t="inlineStr">
         <is>
           <t>Imps_count for 2022-10-08</t>
@@ -13742,7 +13727,7 @@
       <c r="Z2" s="9" t="n"/>
     </row>
     <row r="3" ht="15.75" customHeight="1" s="220">
-      <c r="A3" s="245" t="n"/>
+      <c r="A3" s="242" t="n"/>
       <c r="B3" s="177" t="n">
         <v>102935041</v>
       </c>
@@ -13803,7 +13788,7 @@
       <c r="Z3" s="9" t="n"/>
     </row>
     <row r="4" ht="15.75" customHeight="1" s="220">
-      <c r="A4" s="242" t="n"/>
+      <c r="A4" s="239" t="n"/>
       <c r="B4" s="34" t="n"/>
       <c r="C4" s="34" t="n"/>
       <c r="D4" s="34" t="n"/>
@@ -13831,12 +13816,12 @@
       <c r="Z4" s="9" t="n"/>
     </row>
     <row r="5" ht="15.75" customHeight="1" s="220">
-      <c r="A5" s="251" t="inlineStr">
+      <c r="A5" s="248" t="inlineStr">
         <is>
           <t>Linkedin</t>
         </is>
       </c>
-      <c r="B5" s="233" t="inlineStr">
+      <c r="B5" s="232" t="inlineStr">
         <is>
           <t>SnowFlake</t>
         </is>
@@ -13845,27 +13830,27 @@
       <c r="D5" s="227" t="n"/>
       <c r="E5" s="227" t="n"/>
       <c r="F5" s="228" t="n"/>
-      <c r="G5" s="234" t="inlineStr">
+      <c r="G5" s="233" t="inlineStr">
         <is>
           <t>Athena/S3</t>
         </is>
       </c>
       <c r="H5" s="227" t="n"/>
       <c r="I5" s="228" t="n"/>
-      <c r="J5" s="252" t="inlineStr">
+      <c r="J5" s="249" t="inlineStr">
         <is>
           <t>Looker</t>
         </is>
       </c>
       <c r="K5" s="227" t="n"/>
       <c r="L5" s="228" t="n"/>
-      <c r="M5" s="254" t="inlineStr">
+      <c r="M5" s="251" t="inlineStr">
         <is>
           <t>Power BI</t>
         </is>
       </c>
-      <c r="N5" s="255" t="n"/>
-      <c r="O5" s="256" t="n"/>
+      <c r="N5" s="252" t="n"/>
+      <c r="O5" s="253" t="n"/>
       <c r="P5" s="9" t="n"/>
       <c r="Q5" s="9" t="n"/>
       <c r="R5" s="9" t="n"/>
@@ -13879,7 +13864,7 @@
       <c r="Z5" s="9" t="n"/>
     </row>
     <row r="6" ht="15.75" customHeight="1" s="220">
-      <c r="A6" s="245" t="n"/>
+      <c r="A6" s="242" t="n"/>
       <c r="B6" s="39" t="inlineStr">
         <is>
           <t>Imps_count for 2022-10-08</t>
@@ -13963,7 +13948,7 @@
       <c r="Z6" s="9" t="n"/>
     </row>
     <row r="7" ht="15.75" customHeight="1" s="220">
-      <c r="A7" s="245" t="n"/>
+      <c r="A7" s="242" t="n"/>
       <c r="B7" s="177" t="n">
         <v>755095</v>
       </c>
@@ -14024,7 +14009,7 @@
       <c r="Z7" s="9" t="n"/>
     </row>
     <row r="8" ht="15.75" customHeight="1" s="220">
-      <c r="A8" s="242" t="n"/>
+      <c r="A8" s="239" t="n"/>
       <c r="B8" s="34" t="n"/>
       <c r="C8" s="34" t="n"/>
       <c r="D8" s="34" t="n"/>
@@ -14052,12 +14037,12 @@
       <c r="Z8" s="9" t="n"/>
     </row>
     <row r="9" ht="15.75" customHeight="1" s="220">
-      <c r="A9" s="257" t="inlineStr">
+      <c r="A9" s="254" t="inlineStr">
         <is>
           <t>Spotify</t>
         </is>
       </c>
-      <c r="B9" s="233" t="inlineStr">
+      <c r="B9" s="232" t="inlineStr">
         <is>
           <t>SnowFlake</t>
         </is>
@@ -14066,27 +14051,27 @@
       <c r="D9" s="227" t="n"/>
       <c r="E9" s="227" t="n"/>
       <c r="F9" s="228" t="n"/>
-      <c r="G9" s="234" t="inlineStr">
+      <c r="G9" s="233" t="inlineStr">
         <is>
           <t>Athena/S3</t>
         </is>
       </c>
       <c r="H9" s="227" t="n"/>
       <c r="I9" s="228" t="n"/>
-      <c r="J9" s="252" t="inlineStr">
+      <c r="J9" s="249" t="inlineStr">
         <is>
           <t>Looker</t>
         </is>
       </c>
       <c r="K9" s="227" t="n"/>
       <c r="L9" s="228" t="n"/>
-      <c r="M9" s="254" t="inlineStr">
+      <c r="M9" s="251" t="inlineStr">
         <is>
           <t>Power BI</t>
         </is>
       </c>
-      <c r="N9" s="255" t="n"/>
-      <c r="O9" s="256" t="n"/>
+      <c r="N9" s="252" t="n"/>
+      <c r="O9" s="253" t="n"/>
       <c r="P9" s="9" t="n"/>
       <c r="Q9" s="9" t="n"/>
       <c r="R9" s="9" t="n"/>
@@ -14100,7 +14085,7 @@
       <c r="Z9" s="9" t="n"/>
     </row>
     <row r="10" ht="15.75" customHeight="1" s="220">
-      <c r="A10" s="245" t="n"/>
+      <c r="A10" s="242" t="n"/>
       <c r="B10" s="39" t="inlineStr">
         <is>
           <t>Imps_count for 2022-10-08</t>
@@ -14184,7 +14169,7 @@
       <c r="Z10" s="9" t="n"/>
     </row>
     <row r="11" ht="15.75" customHeight="1" s="220">
-      <c r="A11" s="245" t="n"/>
+      <c r="A11" s="242" t="n"/>
       <c r="B11" s="177" t="n">
         <v>4009348</v>
       </c>
@@ -14250,7 +14235,7 @@
       <c r="Z11" s="9" t="n"/>
     </row>
     <row r="12" ht="15.75" customHeight="1" s="220">
-      <c r="A12" s="242" t="n"/>
+      <c r="A12" s="239" t="n"/>
       <c r="B12" s="34" t="n"/>
       <c r="C12" s="34" t="n"/>
       <c r="D12" s="34" t="n"/>
@@ -14278,12 +14263,12 @@
       <c r="Z12" s="9" t="n"/>
     </row>
     <row r="13" ht="15.75" customHeight="1" s="220">
-      <c r="A13" s="251" t="inlineStr">
+      <c r="A13" s="248" t="inlineStr">
         <is>
           <t>Snapchat</t>
         </is>
       </c>
-      <c r="B13" s="233" t="inlineStr">
+      <c r="B13" s="232" t="inlineStr">
         <is>
           <t>SnowFlake</t>
         </is>
@@ -14292,27 +14277,27 @@
       <c r="D13" s="227" t="n"/>
       <c r="E13" s="227" t="n"/>
       <c r="F13" s="228" t="n"/>
-      <c r="G13" s="234" t="inlineStr">
+      <c r="G13" s="233" t="inlineStr">
         <is>
           <t>Athena/S3</t>
         </is>
       </c>
       <c r="H13" s="227" t="n"/>
       <c r="I13" s="228" t="n"/>
-      <c r="J13" s="258" t="inlineStr">
+      <c r="J13" s="255" t="inlineStr">
         <is>
           <t>Looker</t>
         </is>
       </c>
       <c r="K13" s="227" t="n"/>
       <c r="L13" s="228" t="n"/>
-      <c r="M13" s="254" t="inlineStr">
+      <c r="M13" s="251" t="inlineStr">
         <is>
           <t>Power BI</t>
         </is>
       </c>
-      <c r="N13" s="255" t="n"/>
-      <c r="O13" s="256" t="n"/>
+      <c r="N13" s="252" t="n"/>
+      <c r="O13" s="253" t="n"/>
       <c r="P13" s="9" t="n"/>
       <c r="Q13" s="9" t="n"/>
       <c r="R13" s="9" t="n"/>
@@ -14326,7 +14311,7 @@
       <c r="Z13" s="9" t="n"/>
     </row>
     <row r="14" ht="15.75" customHeight="1" s="220">
-      <c r="A14" s="245" t="n"/>
+      <c r="A14" s="242" t="n"/>
       <c r="B14" s="39" t="inlineStr">
         <is>
           <t>Imps_count for 2022-10-08</t>
@@ -14410,7 +14395,7 @@
       <c r="Z14" s="9" t="n"/>
     </row>
     <row r="15" ht="15.75" customHeight="1" s="220">
-      <c r="A15" s="245" t="n"/>
+      <c r="A15" s="242" t="n"/>
       <c r="B15" s="177" t="n">
         <v>73630024</v>
       </c>
@@ -14471,7 +14456,7 @@
       <c r="Z15" s="9" t="n"/>
     </row>
     <row r="16" ht="15.75" customHeight="1" s="220">
-      <c r="A16" s="242" t="n"/>
+      <c r="A16" s="239" t="n"/>
       <c r="B16" s="34" t="n"/>
       <c r="C16" s="34" t="n"/>
       <c r="D16" s="34" t="n"/>
@@ -14499,12 +14484,12 @@
       <c r="Z16" s="9" t="n"/>
     </row>
     <row r="17" ht="15.75" customHeight="1" s="220">
-      <c r="A17" s="251" t="inlineStr">
+      <c r="A17" s="248" t="inlineStr">
         <is>
           <t>Twitter</t>
         </is>
       </c>
-      <c r="B17" s="233" t="inlineStr">
+      <c r="B17" s="232" t="inlineStr">
         <is>
           <t>SnowFlake</t>
         </is>
@@ -14516,20 +14501,20 @@
       <c r="G17" s="9" t="n"/>
       <c r="H17" s="9" t="n"/>
       <c r="I17" s="9" t="n"/>
-      <c r="J17" s="258" t="inlineStr">
+      <c r="J17" s="255" t="inlineStr">
         <is>
           <t>Looker</t>
         </is>
       </c>
       <c r="K17" s="227" t="n"/>
       <c r="L17" s="228" t="n"/>
-      <c r="M17" s="254" t="inlineStr">
+      <c r="M17" s="251" t="inlineStr">
         <is>
           <t>Power BI</t>
         </is>
       </c>
-      <c r="N17" s="255" t="n"/>
-      <c r="O17" s="256" t="n"/>
+      <c r="N17" s="252" t="n"/>
+      <c r="O17" s="253" t="n"/>
       <c r="P17" s="9" t="n"/>
       <c r="Q17" s="9" t="n"/>
       <c r="R17" s="9" t="n"/>
@@ -14543,7 +14528,7 @@
       <c r="Z17" s="9" t="n"/>
     </row>
     <row r="18" ht="15.75" customHeight="1" s="220">
-      <c r="A18" s="245" t="n"/>
+      <c r="A18" s="242" t="n"/>
       <c r="B18" s="39" t="inlineStr">
         <is>
           <t>Imps_count for 2022-10-08</t>
@@ -14615,7 +14600,7 @@
       <c r="Z18" s="9" t="n"/>
     </row>
     <row r="19" ht="15.75" customHeight="1" s="220">
-      <c r="A19" s="245" t="n"/>
+      <c r="A19" s="242" t="n"/>
       <c r="B19" s="177" t="n">
         <v>165656775</v>
       </c>
@@ -14676,7 +14661,7 @@
       <c r="Z19" s="9" t="n"/>
     </row>
     <row r="20" ht="15.75" customHeight="1" s="220">
-      <c r="A20" s="242" t="n"/>
+      <c r="A20" s="239" t="n"/>
       <c r="B20" s="34" t="n"/>
       <c r="C20" s="34" t="n"/>
       <c r="D20" s="34" t="n"/>
@@ -14704,12 +14689,12 @@
       <c r="Z20" s="9" t="n"/>
     </row>
     <row r="21" ht="15.75" customHeight="1" s="220">
-      <c r="A21" s="251" t="inlineStr">
+      <c r="A21" s="248" t="inlineStr">
         <is>
           <t>Facebook</t>
         </is>
       </c>
-      <c r="B21" s="233" t="inlineStr">
+      <c r="B21" s="232" t="inlineStr">
         <is>
           <t>SnowFlake</t>
         </is>
@@ -14718,27 +14703,27 @@
       <c r="D21" s="227" t="n"/>
       <c r="E21" s="227" t="n"/>
       <c r="F21" s="228" t="n"/>
-      <c r="G21" s="234" t="inlineStr">
+      <c r="G21" s="233" t="inlineStr">
         <is>
           <t>Athena/S3</t>
         </is>
       </c>
       <c r="H21" s="227" t="n"/>
       <c r="I21" s="228" t="n"/>
-      <c r="J21" s="258" t="inlineStr">
+      <c r="J21" s="255" t="inlineStr">
         <is>
           <t>Looker</t>
         </is>
       </c>
       <c r="K21" s="227" t="n"/>
       <c r="L21" s="228" t="n"/>
-      <c r="M21" s="254" t="inlineStr">
+      <c r="M21" s="251" t="inlineStr">
         <is>
           <t>Power BI</t>
         </is>
       </c>
-      <c r="N21" s="255" t="n"/>
-      <c r="O21" s="256" t="n"/>
+      <c r="N21" s="252" t="n"/>
+      <c r="O21" s="253" t="n"/>
       <c r="P21" s="9" t="n"/>
       <c r="Q21" s="9" t="n"/>
       <c r="R21" s="9" t="n"/>
@@ -14752,7 +14737,7 @@
       <c r="Z21" s="9" t="n"/>
     </row>
     <row r="22" ht="15.75" customHeight="1" s="220">
-      <c r="A22" s="245" t="n"/>
+      <c r="A22" s="242" t="n"/>
       <c r="B22" s="39" t="inlineStr">
         <is>
           <t>Imps_count for 2022-10-08</t>
@@ -14836,7 +14821,7 @@
       <c r="Z22" s="9" t="n"/>
     </row>
     <row r="23" ht="15.75" customHeight="1" s="220">
-      <c r="A23" s="245" t="n"/>
+      <c r="A23" s="242" t="n"/>
       <c r="B23" s="177" t="n">
         <v>3253652900</v>
       </c>
@@ -14897,7 +14882,7 @@
       <c r="Z23" s="9" t="n"/>
     </row>
     <row r="24" ht="15.75" customHeight="1" s="220">
-      <c r="A24" s="242" t="n"/>
+      <c r="A24" s="239" t="n"/>
       <c r="B24" s="34" t="n"/>
       <c r="C24" s="34" t="n"/>
       <c r="D24" s="34" t="n"/>
@@ -14925,12 +14910,12 @@
       <c r="Z24" s="9" t="n"/>
     </row>
     <row r="25" ht="15.75" customHeight="1" s="220">
-      <c r="A25" s="251" t="inlineStr">
+      <c r="A25" s="248" t="inlineStr">
         <is>
           <t>Youtube - Google Ads</t>
         </is>
       </c>
-      <c r="B25" s="233" t="inlineStr">
+      <c r="B25" s="232" t="inlineStr">
         <is>
           <t>SnowFlake</t>
         </is>
@@ -14942,7 +14927,7 @@
       <c r="G25" s="9" t="n"/>
       <c r="H25" s="9" t="n"/>
       <c r="I25" s="200" t="n"/>
-      <c r="J25" s="259" t="inlineStr">
+      <c r="J25" s="256" t="inlineStr">
         <is>
           <t>Looker</t>
         </is>
@@ -14965,7 +14950,7 @@
       <c r="Z25" s="9" t="n"/>
     </row>
     <row r="26" ht="15.75" customHeight="1" s="220">
-      <c r="A26" s="245" t="n"/>
+      <c r="A26" s="242" t="n"/>
       <c r="B26" s="39" t="inlineStr">
         <is>
           <t>Imps_count for 2022-10-08</t>
@@ -15025,7 +15010,7 @@
       <c r="Z26" s="9" t="n"/>
     </row>
     <row r="27" ht="15.75" customHeight="1" s="220">
-      <c r="A27" s="245" t="n"/>
+      <c r="A27" s="242" t="n"/>
       <c r="B27" s="177" t="n">
         <v>359461298</v>
       </c>
@@ -15074,7 +15059,7 @@
       <c r="Z27" s="9" t="n"/>
     </row>
     <row r="28" ht="15.75" customHeight="1" s="220">
-      <c r="A28" s="242" t="n"/>
+      <c r="A28" s="239" t="n"/>
       <c r="B28" s="34" t="n"/>
       <c r="C28" s="34" t="n"/>
       <c r="D28" s="34" t="n"/>
@@ -15102,12 +15087,12 @@
       <c r="Z28" s="9" t="n"/>
     </row>
     <row r="29" ht="15.75" customHeight="1" s="220">
-      <c r="A29" s="251" t="inlineStr">
+      <c r="A29" s="248" t="inlineStr">
         <is>
           <t>Youtube - DV 360</t>
         </is>
       </c>
-      <c r="B29" s="233" t="inlineStr">
+      <c r="B29" s="232" t="inlineStr">
         <is>
           <t>SnowFlake</t>
         </is>
@@ -15119,7 +15104,7 @@
       <c r="G29" s="204" t="n"/>
       <c r="H29" s="204" t="n"/>
       <c r="I29" s="195" t="n"/>
-      <c r="J29" s="258" t="inlineStr">
+      <c r="J29" s="255" t="inlineStr">
         <is>
           <t>Looker</t>
         </is>
@@ -15142,7 +15127,7 @@
       <c r="Z29" s="9" t="n"/>
     </row>
     <row r="30" ht="15.75" customHeight="1" s="220">
-      <c r="A30" s="245" t="n"/>
+      <c r="A30" s="242" t="n"/>
       <c r="B30" s="39" t="inlineStr">
         <is>
           <t>Imps_count for 2022-10-08</t>
@@ -15202,7 +15187,7 @@
       <c r="Z30" s="9" t="n"/>
     </row>
     <row r="31" ht="15.75" customHeight="1" s="220">
-      <c r="A31" s="245" t="n"/>
+      <c r="A31" s="242" t="n"/>
       <c r="B31" s="177" t="n">
         <v>959445696</v>
       </c>
@@ -15251,7 +15236,7 @@
       <c r="Z31" s="9" t="n"/>
     </row>
     <row r="32" ht="15.75" customHeight="1" s="220">
-      <c r="A32" s="242" t="n"/>
+      <c r="A32" s="239" t="n"/>
       <c r="B32" s="34" t="n"/>
       <c r="C32" s="34" t="n"/>
       <c r="D32" s="34" t="n"/>
@@ -15279,12 +15264,12 @@
       <c r="Z32" s="9" t="n"/>
     </row>
     <row r="33" ht="15.75" customHeight="1" s="220">
-      <c r="A33" s="251" t="inlineStr">
+      <c r="A33" s="248" t="inlineStr">
         <is>
           <t>Youtube - Partner Sold</t>
         </is>
       </c>
-      <c r="B33" s="233" t="inlineStr">
+      <c r="B33" s="232" t="inlineStr">
         <is>
           <t>SnowFlake</t>
         </is>
@@ -15296,7 +15281,7 @@
       <c r="G33" s="204" t="n"/>
       <c r="H33" s="204" t="n"/>
       <c r="I33" s="195" t="n"/>
-      <c r="J33" s="258" t="inlineStr">
+      <c r="J33" s="255" t="inlineStr">
         <is>
           <t>Looker</t>
         </is>
@@ -15319,7 +15304,7 @@
       <c r="Z33" s="9" t="n"/>
     </row>
     <row r="34" ht="15.75" customHeight="1" s="220">
-      <c r="A34" s="245" t="n"/>
+      <c r="A34" s="242" t="n"/>
       <c r="B34" s="39" t="inlineStr">
         <is>
           <t>Imps_count for 2022-10-08</t>
@@ -15379,7 +15364,7 @@
       <c r="Z34" s="9" t="n"/>
     </row>
     <row r="35" ht="15.75" customHeight="1" s="220">
-      <c r="A35" s="245" t="n"/>
+      <c r="A35" s="242" t="n"/>
       <c r="B35" s="177" t="n">
         <v>12487607</v>
       </c>
@@ -15429,7 +15414,7 @@
       <c r="Z35" s="9" t="n"/>
     </row>
     <row r="36" ht="15.75" customHeight="1" s="220">
-      <c r="A36" s="242" t="n"/>
+      <c r="A36" s="239" t="n"/>
       <c r="B36" s="34" t="n"/>
       <c r="C36" s="34" t="n"/>
       <c r="D36" s="34" t="n"/>
@@ -15457,12 +15442,12 @@
       <c r="Z36" s="9" t="n"/>
     </row>
     <row r="37" ht="15.75" customHeight="1" s="220">
-      <c r="A37" s="251" t="inlineStr">
+      <c r="A37" s="248" t="inlineStr">
         <is>
           <t>Youtube - Reserve</t>
         </is>
       </c>
-      <c r="B37" s="233" t="inlineStr">
+      <c r="B37" s="232" t="inlineStr">
         <is>
           <t>SnowFlake</t>
         </is>
@@ -15474,7 +15459,7 @@
       <c r="G37" s="207" t="n"/>
       <c r="H37" s="207" t="n"/>
       <c r="I37" s="196" t="n"/>
-      <c r="J37" s="258" t="inlineStr">
+      <c r="J37" s="255" t="inlineStr">
         <is>
           <t>Looker</t>
         </is>
@@ -15497,7 +15482,7 @@
       <c r="Z37" s="9" t="n"/>
     </row>
     <row r="38" ht="15.75" customHeight="1" s="220">
-      <c r="A38" s="245" t="n"/>
+      <c r="A38" s="242" t="n"/>
       <c r="B38" s="39" t="inlineStr">
         <is>
           <t>Imps_count for 2022-10-08</t>
@@ -15557,7 +15542,7 @@
       <c r="Z38" s="9" t="n"/>
     </row>
     <row r="39" ht="15.75" customHeight="1" s="220">
-      <c r="A39" s="245" t="n"/>
+      <c r="A39" s="242" t="n"/>
       <c r="B39" s="177" t="n">
         <v>23175647</v>
       </c>
@@ -15607,7 +15592,7 @@
       <c r="Z39" s="9" t="n"/>
     </row>
     <row r="40" ht="15.75" customHeight="1" s="220">
-      <c r="A40" s="242" t="n"/>
+      <c r="A40" s="239" t="n"/>
       <c r="B40" s="34" t="n"/>
       <c r="C40" s="34" t="n"/>
       <c r="D40" s="34" t="n"/>
@@ -15635,12 +15620,12 @@
       <c r="Z40" s="9" t="n"/>
     </row>
     <row r="41" ht="15.75" customHeight="1" s="220">
-      <c r="A41" s="251" t="inlineStr">
+      <c r="A41" s="248" t="inlineStr">
         <is>
           <t>Yahoo</t>
         </is>
       </c>
-      <c r="B41" s="233" t="inlineStr">
+      <c r="B41" s="232" t="inlineStr">
         <is>
           <t>SnowFlake</t>
         </is>
@@ -15649,17 +15634,17 @@
       <c r="D41" s="227" t="n"/>
       <c r="E41" s="227" t="n"/>
       <c r="F41" s="228" t="n"/>
-      <c r="G41" s="260" t="inlineStr">
+      <c r="G41" s="257" t="inlineStr">
         <is>
           <t>Athena/S3</t>
         </is>
       </c>
-      <c r="H41" s="255" t="n"/>
-      <c r="I41" s="256" t="n"/>
+      <c r="H41" s="252" t="n"/>
+      <c r="I41" s="253" t="n"/>
       <c r="J41" s="9" t="n"/>
       <c r="K41" s="9" t="n"/>
       <c r="L41" s="209" t="n"/>
-      <c r="M41" s="261" t="inlineStr">
+      <c r="M41" s="258" t="inlineStr">
         <is>
           <t>Power BI</t>
         </is>
@@ -15679,7 +15664,7 @@
       <c r="Z41" s="9" t="n"/>
     </row>
     <row r="42" ht="15.75" customHeight="1" s="220">
-      <c r="A42" s="245" t="n"/>
+      <c r="A42" s="242" t="n"/>
       <c r="B42" s="39" t="inlineStr">
         <is>
           <t>Imps_count for 2022-10-08</t>
@@ -15751,7 +15736,7 @@
       <c r="Z42" s="9" t="n"/>
     </row>
     <row r="43" ht="15.75" customHeight="1" s="220">
-      <c r="A43" s="242" t="n"/>
+      <c r="A43" s="239" t="n"/>
       <c r="B43" s="177" t="n">
         <v>75806768</v>
       </c>
@@ -22254,12 +22239,12 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" s="220">
-      <c r="A1" s="251" t="inlineStr">
+      <c r="A1" s="248" t="inlineStr">
         <is>
           <t>Pinterest</t>
         </is>
       </c>
-      <c r="B1" s="233" t="inlineStr">
+      <c r="B1" s="232" t="inlineStr">
         <is>
           <t>SnowFlake</t>
         </is>
@@ -22268,21 +22253,21 @@
       <c r="D1" s="227" t="n"/>
       <c r="E1" s="227" t="n"/>
       <c r="F1" s="228" t="n"/>
-      <c r="G1" s="234" t="inlineStr">
+      <c r="G1" s="233" t="inlineStr">
         <is>
           <t>Athena/S3</t>
         </is>
       </c>
       <c r="H1" s="227" t="n"/>
       <c r="I1" s="228" t="n"/>
-      <c r="J1" s="252" t="inlineStr">
+      <c r="J1" s="249" t="inlineStr">
         <is>
           <t>Looker</t>
         </is>
       </c>
       <c r="K1" s="227" t="n"/>
       <c r="L1" s="228" t="n"/>
-      <c r="M1" s="253" t="inlineStr">
+      <c r="M1" s="250" t="inlineStr">
         <is>
           <t>Power BI</t>
         </is>
@@ -22302,7 +22287,7 @@
       <c r="Z1" s="9" t="n"/>
     </row>
     <row r="2" ht="15.75" customHeight="1" s="220">
-      <c r="A2" s="245" t="n"/>
+      <c r="A2" s="242" t="n"/>
       <c r="B2" s="39" t="inlineStr">
         <is>
           <t>Imps_count for 2022-10-08</t>
@@ -22386,7 +22371,7 @@
       <c r="Z2" s="9" t="n"/>
     </row>
     <row r="3" ht="15.75" customHeight="1" s="220">
-      <c r="A3" s="245" t="n"/>
+      <c r="A3" s="242" t="n"/>
       <c r="B3" s="212" t="n">
         <v>102935041</v>
       </c>
@@ -22448,7 +22433,7 @@
       <c r="Z3" s="9" t="n"/>
     </row>
     <row r="4" ht="15.75" customHeight="1" s="220">
-      <c r="A4" s="242" t="n"/>
+      <c r="A4" s="239" t="n"/>
       <c r="B4" s="34" t="n"/>
       <c r="C4" s="34" t="n"/>
       <c r="D4" s="34" t="n"/>
@@ -22476,12 +22461,12 @@
       <c r="Z4" s="9" t="n"/>
     </row>
     <row r="5" ht="15.75" customHeight="1" s="220">
-      <c r="A5" s="251" t="inlineStr">
+      <c r="A5" s="248" t="inlineStr">
         <is>
           <t>Linkedin</t>
         </is>
       </c>
-      <c r="B5" s="233" t="inlineStr">
+      <c r="B5" s="232" t="inlineStr">
         <is>
           <t>SnowFlake</t>
         </is>
@@ -22490,27 +22475,27 @@
       <c r="D5" s="227" t="n"/>
       <c r="E5" s="227" t="n"/>
       <c r="F5" s="228" t="n"/>
-      <c r="G5" s="234" t="inlineStr">
+      <c r="G5" s="233" t="inlineStr">
         <is>
           <t>Athena/S3</t>
         </is>
       </c>
       <c r="H5" s="227" t="n"/>
       <c r="I5" s="228" t="n"/>
-      <c r="J5" s="252" t="inlineStr">
+      <c r="J5" s="249" t="inlineStr">
         <is>
           <t>Looker</t>
         </is>
       </c>
       <c r="K5" s="227" t="n"/>
       <c r="L5" s="228" t="n"/>
-      <c r="M5" s="254" t="inlineStr">
+      <c r="M5" s="251" t="inlineStr">
         <is>
           <t>Power BI</t>
         </is>
       </c>
-      <c r="N5" s="255" t="n"/>
-      <c r="O5" s="256" t="n"/>
+      <c r="N5" s="252" t="n"/>
+      <c r="O5" s="253" t="n"/>
       <c r="P5" s="9" t="n"/>
       <c r="Q5" s="9" t="n"/>
       <c r="R5" s="9" t="n"/>
@@ -22524,7 +22509,7 @@
       <c r="Z5" s="9" t="n"/>
     </row>
     <row r="6" ht="15.75" customHeight="1" s="220">
-      <c r="A6" s="245" t="n"/>
+      <c r="A6" s="242" t="n"/>
       <c r="B6" s="39" t="inlineStr">
         <is>
           <t>Imps_count for 2022-10-09</t>
@@ -22608,7 +22593,7 @@
       <c r="Z6" s="9" t="n"/>
     </row>
     <row r="7" ht="15.75" customHeight="1" s="220">
-      <c r="A7" s="245" t="n"/>
+      <c r="A7" s="242" t="n"/>
       <c r="B7" s="212" t="n">
         <v>833436</v>
       </c>
@@ -22669,7 +22654,7 @@
       <c r="Z7" s="9" t="n"/>
     </row>
     <row r="8" ht="15.75" customHeight="1" s="220">
-      <c r="A8" s="242" t="n"/>
+      <c r="A8" s="239" t="n"/>
       <c r="B8" s="34" t="n"/>
       <c r="C8" s="34" t="n"/>
       <c r="D8" s="34" t="n"/>
@@ -22697,12 +22682,12 @@
       <c r="Z8" s="9" t="n"/>
     </row>
     <row r="9" ht="15.75" customHeight="1" s="220">
-      <c r="A9" s="257" t="inlineStr">
+      <c r="A9" s="254" t="inlineStr">
         <is>
           <t>Spotify</t>
         </is>
       </c>
-      <c r="B9" s="233" t="inlineStr">
+      <c r="B9" s="232" t="inlineStr">
         <is>
           <t>SnowFlake</t>
         </is>
@@ -22711,27 +22696,27 @@
       <c r="D9" s="227" t="n"/>
       <c r="E9" s="227" t="n"/>
       <c r="F9" s="228" t="n"/>
-      <c r="G9" s="234" t="inlineStr">
+      <c r="G9" s="233" t="inlineStr">
         <is>
           <t>Athena/S3</t>
         </is>
       </c>
       <c r="H9" s="227" t="n"/>
       <c r="I9" s="228" t="n"/>
-      <c r="J9" s="252" t="inlineStr">
+      <c r="J9" s="249" t="inlineStr">
         <is>
           <t>Looker</t>
         </is>
       </c>
       <c r="K9" s="227" t="n"/>
       <c r="L9" s="228" t="n"/>
-      <c r="M9" s="254" t="inlineStr">
+      <c r="M9" s="251" t="inlineStr">
         <is>
           <t>Power BI</t>
         </is>
       </c>
-      <c r="N9" s="255" t="n"/>
-      <c r="O9" s="256" t="n"/>
+      <c r="N9" s="252" t="n"/>
+      <c r="O9" s="253" t="n"/>
       <c r="P9" s="9" t="n"/>
       <c r="Q9" s="9" t="n"/>
       <c r="R9" s="9" t="n"/>
@@ -22745,7 +22730,7 @@
       <c r="Z9" s="9" t="n"/>
     </row>
     <row r="10" ht="15.75" customHeight="1" s="220">
-      <c r="A10" s="245" t="n"/>
+      <c r="A10" s="242" t="n"/>
       <c r="B10" s="39" t="inlineStr">
         <is>
           <t>Imps_count for 2022-10-09</t>
@@ -22829,7 +22814,7 @@
       <c r="Z10" s="9" t="n"/>
     </row>
     <row r="11" ht="15.75" customHeight="1" s="220">
-      <c r="A11" s="245" t="n"/>
+      <c r="A11" s="242" t="n"/>
       <c r="B11" s="212" t="n">
         <v>3025209</v>
       </c>
@@ -22891,7 +22876,7 @@
       <c r="Z11" s="9" t="n"/>
     </row>
     <row r="12" ht="15.75" customHeight="1" s="220">
-      <c r="A12" s="242" t="n"/>
+      <c r="A12" s="239" t="n"/>
       <c r="B12" s="34" t="n"/>
       <c r="C12" s="34" t="n"/>
       <c r="D12" s="34" t="n"/>
@@ -22919,12 +22904,12 @@
       <c r="Z12" s="9" t="n"/>
     </row>
     <row r="13" ht="15.75" customHeight="1" s="220">
-      <c r="A13" s="251" t="inlineStr">
+      <c r="A13" s="248" t="inlineStr">
         <is>
           <t>Snapchat</t>
         </is>
       </c>
-      <c r="B13" s="233" t="inlineStr">
+      <c r="B13" s="232" t="inlineStr">
         <is>
           <t>SnowFlake</t>
         </is>
@@ -22933,27 +22918,27 @@
       <c r="D13" s="227" t="n"/>
       <c r="E13" s="227" t="n"/>
       <c r="F13" s="228" t="n"/>
-      <c r="G13" s="234" t="inlineStr">
+      <c r="G13" s="233" t="inlineStr">
         <is>
           <t>Athena/S3</t>
         </is>
       </c>
       <c r="H13" s="227" t="n"/>
       <c r="I13" s="228" t="n"/>
-      <c r="J13" s="258" t="inlineStr">
+      <c r="J13" s="255" t="inlineStr">
         <is>
           <t>Looker</t>
         </is>
       </c>
       <c r="K13" s="227" t="n"/>
       <c r="L13" s="228" t="n"/>
-      <c r="M13" s="254" t="inlineStr">
+      <c r="M13" s="251" t="inlineStr">
         <is>
           <t>Power BI</t>
         </is>
       </c>
-      <c r="N13" s="255" t="n"/>
-      <c r="O13" s="256" t="n"/>
+      <c r="N13" s="252" t="n"/>
+      <c r="O13" s="253" t="n"/>
       <c r="P13" s="9" t="n"/>
       <c r="Q13" s="9" t="n"/>
       <c r="R13" s="9" t="n"/>
@@ -22967,7 +22952,7 @@
       <c r="Z13" s="9" t="n"/>
     </row>
     <row r="14" ht="15.75" customHeight="1" s="220">
-      <c r="A14" s="245" t="n"/>
+      <c r="A14" s="242" t="n"/>
       <c r="B14" s="39" t="inlineStr">
         <is>
           <t>Imps_count for 2022-10-09</t>
@@ -23051,7 +23036,7 @@
       <c r="Z14" s="9" t="n"/>
     </row>
     <row r="15" ht="15.75" customHeight="1" s="220">
-      <c r="A15" s="245" t="n"/>
+      <c r="A15" s="242" t="n"/>
       <c r="B15" s="212" t="n">
         <v>69161149</v>
       </c>
@@ -23113,7 +23098,7 @@
       <c r="Z15" s="9" t="n"/>
     </row>
     <row r="16" ht="15.75" customHeight="1" s="220">
-      <c r="A16" s="242" t="n"/>
+      <c r="A16" s="239" t="n"/>
       <c r="B16" s="34" t="n"/>
       <c r="C16" s="34" t="n"/>
       <c r="D16" s="34" t="n"/>
@@ -23141,12 +23126,12 @@
       <c r="Z16" s="9" t="n"/>
     </row>
     <row r="17" ht="15.75" customHeight="1" s="220">
-      <c r="A17" s="251" t="inlineStr">
+      <c r="A17" s="248" t="inlineStr">
         <is>
           <t>Twitter</t>
         </is>
       </c>
-      <c r="B17" s="233" t="inlineStr">
+      <c r="B17" s="232" t="inlineStr">
         <is>
           <t>SnowFlake</t>
         </is>
@@ -23158,20 +23143,20 @@
       <c r="G17" s="9" t="n"/>
       <c r="H17" s="9" t="n"/>
       <c r="I17" s="9" t="n"/>
-      <c r="J17" s="258" t="inlineStr">
+      <c r="J17" s="255" t="inlineStr">
         <is>
           <t>Looker</t>
         </is>
       </c>
       <c r="K17" s="227" t="n"/>
       <c r="L17" s="228" t="n"/>
-      <c r="M17" s="254" t="inlineStr">
+      <c r="M17" s="251" t="inlineStr">
         <is>
           <t>Power BI</t>
         </is>
       </c>
-      <c r="N17" s="255" t="n"/>
-      <c r="O17" s="256" t="n"/>
+      <c r="N17" s="252" t="n"/>
+      <c r="O17" s="253" t="n"/>
       <c r="P17" s="9" t="n"/>
       <c r="Q17" s="9" t="n"/>
       <c r="R17" s="9" t="n"/>
@@ -23185,7 +23170,7 @@
       <c r="Z17" s="9" t="n"/>
     </row>
     <row r="18" ht="15.75" customHeight="1" s="220">
-      <c r="A18" s="245" t="n"/>
+      <c r="A18" s="242" t="n"/>
       <c r="B18" s="39" t="inlineStr">
         <is>
           <t>Imps_count for 2022-10-09</t>
@@ -23257,7 +23242,7 @@
       <c r="Z18" s="9" t="n"/>
     </row>
     <row r="19" ht="15.75" customHeight="1" s="220">
-      <c r="A19" s="245" t="n"/>
+      <c r="A19" s="242" t="n"/>
       <c r="B19" s="212" t="n">
         <v>193046959</v>
       </c>
@@ -23318,7 +23303,7 @@
       <c r="Z19" s="9" t="n"/>
     </row>
     <row r="20" ht="15.75" customHeight="1" s="220">
-      <c r="A20" s="242" t="n"/>
+      <c r="A20" s="239" t="n"/>
       <c r="B20" s="34" t="n"/>
       <c r="C20" s="34" t="n"/>
       <c r="D20" s="34" t="n"/>
@@ -23346,12 +23331,12 @@
       <c r="Z20" s="9" t="n"/>
     </row>
     <row r="21" ht="15.75" customHeight="1" s="220">
-      <c r="A21" s="251" t="inlineStr">
+      <c r="A21" s="248" t="inlineStr">
         <is>
           <t>Facebook</t>
         </is>
       </c>
-      <c r="B21" s="233" t="inlineStr">
+      <c r="B21" s="232" t="inlineStr">
         <is>
           <t>SnowFlake</t>
         </is>
@@ -23360,27 +23345,27 @@
       <c r="D21" s="227" t="n"/>
       <c r="E21" s="227" t="n"/>
       <c r="F21" s="228" t="n"/>
-      <c r="G21" s="234" t="inlineStr">
+      <c r="G21" s="233" t="inlineStr">
         <is>
           <t>Athena/S3</t>
         </is>
       </c>
       <c r="H21" s="227" t="n"/>
       <c r="I21" s="228" t="n"/>
-      <c r="J21" s="258" t="inlineStr">
+      <c r="J21" s="255" t="inlineStr">
         <is>
           <t>Looker</t>
         </is>
       </c>
       <c r="K21" s="227" t="n"/>
       <c r="L21" s="228" t="n"/>
-      <c r="M21" s="254" t="inlineStr">
+      <c r="M21" s="251" t="inlineStr">
         <is>
           <t>Power BI</t>
         </is>
       </c>
-      <c r="N21" s="255" t="n"/>
-      <c r="O21" s="256" t="n"/>
+      <c r="N21" s="252" t="n"/>
+      <c r="O21" s="253" t="n"/>
       <c r="P21" s="9" t="n"/>
       <c r="Q21" s="9" t="n"/>
       <c r="R21" s="9" t="n"/>
@@ -23394,7 +23379,7 @@
       <c r="Z21" s="9" t="n"/>
     </row>
     <row r="22" ht="15.75" customHeight="1" s="220">
-      <c r="A22" s="245" t="n"/>
+      <c r="A22" s="242" t="n"/>
       <c r="B22" s="39" t="inlineStr">
         <is>
           <t>Imps_count for 2022-10-08</t>
@@ -23478,7 +23463,7 @@
       <c r="Z22" s="9" t="n"/>
     </row>
     <row r="23" ht="15.75" customHeight="1" s="220">
-      <c r="A23" s="245" t="n"/>
+      <c r="A23" s="242" t="n"/>
       <c r="B23" s="212" t="n">
         <v>3253652900</v>
       </c>
@@ -23540,7 +23525,7 @@
       <c r="Z23" s="9" t="n"/>
     </row>
     <row r="24" ht="15.75" customHeight="1" s="220">
-      <c r="A24" s="242" t="n"/>
+      <c r="A24" s="239" t="n"/>
       <c r="B24" s="34" t="n"/>
       <c r="C24" s="34" t="n"/>
       <c r="D24" s="34" t="n"/>
@@ -23568,12 +23553,12 @@
       <c r="Z24" s="9" t="n"/>
     </row>
     <row r="25" ht="15.75" customHeight="1" s="220">
-      <c r="A25" s="251" t="inlineStr">
+      <c r="A25" s="248" t="inlineStr">
         <is>
           <t>Youtube - Google Ads</t>
         </is>
       </c>
-      <c r="B25" s="233" t="inlineStr">
+      <c r="B25" s="232" t="inlineStr">
         <is>
           <t>SnowFlake</t>
         </is>
@@ -23585,7 +23570,7 @@
       <c r="G25" s="9" t="n"/>
       <c r="H25" s="9" t="n"/>
       <c r="I25" s="200" t="n"/>
-      <c r="J25" s="259" t="inlineStr">
+      <c r="J25" s="256" t="inlineStr">
         <is>
           <t>Looker</t>
         </is>
@@ -23608,7 +23593,7 @@
       <c r="Z25" s="9" t="n"/>
     </row>
     <row r="26" ht="15.75" customHeight="1" s="220">
-      <c r="A26" s="245" t="n"/>
+      <c r="A26" s="242" t="n"/>
       <c r="B26" s="39" t="inlineStr">
         <is>
           <t>Imps_count for 2022-10-09</t>
@@ -23668,7 +23653,7 @@
       <c r="Z26" s="9" t="n"/>
     </row>
     <row r="27" ht="15.75" customHeight="1" s="220">
-      <c r="A27" s="245" t="n"/>
+      <c r="A27" s="242" t="n"/>
       <c r="B27" s="212" t="n">
         <v>353858325</v>
       </c>
@@ -23720,7 +23705,7 @@
       <c r="Z27" s="9" t="n"/>
     </row>
     <row r="28" ht="15.75" customHeight="1" s="220">
-      <c r="A28" s="242" t="n"/>
+      <c r="A28" s="239" t="n"/>
       <c r="B28" s="34" t="n"/>
       <c r="C28" s="34" t="n"/>
       <c r="D28" s="34" t="n"/>
@@ -23748,12 +23733,12 @@
       <c r="Z28" s="9" t="n"/>
     </row>
     <row r="29" ht="15.75" customHeight="1" s="220">
-      <c r="A29" s="251" t="inlineStr">
+      <c r="A29" s="248" t="inlineStr">
         <is>
           <t>Youtube - DV 360</t>
         </is>
       </c>
-      <c r="B29" s="233" t="inlineStr">
+      <c r="B29" s="232" t="inlineStr">
         <is>
           <t>SnowFlake</t>
         </is>
@@ -23765,7 +23750,7 @@
       <c r="G29" s="207" t="n"/>
       <c r="H29" s="207" t="n"/>
       <c r="I29" s="195" t="n"/>
-      <c r="J29" s="258" t="inlineStr">
+      <c r="J29" s="255" t="inlineStr">
         <is>
           <t>Looker</t>
         </is>
@@ -23788,7 +23773,7 @@
       <c r="Z29" s="9" t="n"/>
     </row>
     <row r="30" ht="15.75" customHeight="1" s="220">
-      <c r="A30" s="245" t="n"/>
+      <c r="A30" s="242" t="n"/>
       <c r="B30" s="39" t="inlineStr">
         <is>
           <t>Imps_count for 2022-10-09</t>
@@ -23848,7 +23833,7 @@
       <c r="Z30" s="9" t="n"/>
     </row>
     <row r="31" ht="15.75" customHeight="1" s="220">
-      <c r="A31" s="245" t="n"/>
+      <c r="A31" s="242" t="n"/>
       <c r="B31" s="212" t="n">
         <v>958067789</v>
       </c>
@@ -23900,7 +23885,7 @@
       <c r="Z31" s="9" t="n"/>
     </row>
     <row r="32" ht="15.75" customHeight="1" s="220">
-      <c r="A32" s="242" t="n"/>
+      <c r="A32" s="239" t="n"/>
       <c r="B32" s="34" t="n"/>
       <c r="C32" s="34" t="n"/>
       <c r="D32" s="34" t="n"/>
@@ -23928,12 +23913,12 @@
       <c r="Z32" s="9" t="n"/>
     </row>
     <row r="33" ht="15.75" customHeight="1" s="220">
-      <c r="A33" s="251" t="inlineStr">
+      <c r="A33" s="248" t="inlineStr">
         <is>
           <t>Youtube - Partner Sold</t>
         </is>
       </c>
-      <c r="B33" s="233" t="inlineStr">
+      <c r="B33" s="232" t="inlineStr">
         <is>
           <t>SnowFlake</t>
         </is>
@@ -23945,7 +23930,7 @@
       <c r="G33" s="207" t="n"/>
       <c r="H33" s="207" t="n"/>
       <c r="I33" s="195" t="n"/>
-      <c r="J33" s="258" t="inlineStr">
+      <c r="J33" s="255" t="inlineStr">
         <is>
           <t>Looker</t>
         </is>
@@ -23968,7 +23953,7 @@
       <c r="Z33" s="9" t="n"/>
     </row>
     <row r="34" ht="15.75" customHeight="1" s="220">
-      <c r="A34" s="245" t="n"/>
+      <c r="A34" s="242" t="n"/>
       <c r="B34" s="39" t="inlineStr">
         <is>
           <t>Imps_count for 2022-10-09</t>
@@ -24028,7 +24013,7 @@
       <c r="Z34" s="9" t="n"/>
     </row>
     <row r="35" ht="15.75" customHeight="1" s="220">
-      <c r="A35" s="245" t="n"/>
+      <c r="A35" s="242" t="n"/>
       <c r="B35" s="212" t="n">
         <v>10197709</v>
       </c>
@@ -24080,7 +24065,7 @@
       <c r="Z35" s="9" t="n"/>
     </row>
     <row r="36" ht="15.75" customHeight="1" s="220">
-      <c r="A36" s="242" t="n"/>
+      <c r="A36" s="239" t="n"/>
       <c r="B36" s="34" t="n"/>
       <c r="C36" s="34" t="n"/>
       <c r="D36" s="34" t="n"/>
@@ -24108,12 +24093,12 @@
       <c r="Z36" s="9" t="n"/>
     </row>
     <row r="37" ht="15.75" customHeight="1" s="220">
-      <c r="A37" s="251" t="inlineStr">
+      <c r="A37" s="248" t="inlineStr">
         <is>
           <t>Youtube - Reserve</t>
         </is>
       </c>
-      <c r="B37" s="233" t="inlineStr">
+      <c r="B37" s="232" t="inlineStr">
         <is>
           <t>SnowFlake</t>
         </is>
@@ -24125,7 +24110,7 @@
       <c r="G37" s="207" t="n"/>
       <c r="H37" s="207" t="n"/>
       <c r="I37" s="196" t="n"/>
-      <c r="J37" s="258" t="inlineStr">
+      <c r="J37" s="255" t="inlineStr">
         <is>
           <t>Looker</t>
         </is>
@@ -24148,7 +24133,7 @@
       <c r="Z37" s="9" t="n"/>
     </row>
     <row r="38" ht="15.75" customHeight="1" s="220">
-      <c r="A38" s="245" t="n"/>
+      <c r="A38" s="242" t="n"/>
       <c r="B38" s="39" t="inlineStr">
         <is>
           <t>Imps_count for 2022-10-09</t>
@@ -24208,7 +24193,7 @@
       <c r="Z38" s="9" t="n"/>
     </row>
     <row r="39" ht="15.75" customHeight="1" s="220">
-      <c r="A39" s="245" t="n"/>
+      <c r="A39" s="242" t="n"/>
       <c r="B39" s="212" t="n">
         <v>22767645</v>
       </c>
@@ -24260,7 +24245,7 @@
       <c r="Z39" s="9" t="n"/>
     </row>
     <row r="40" ht="15.75" customHeight="1" s="220">
-      <c r="A40" s="242" t="n"/>
+      <c r="A40" s="239" t="n"/>
       <c r="B40" s="34" t="n"/>
       <c r="C40" s="34" t="n"/>
       <c r="D40" s="34" t="n"/>
@@ -24288,12 +24273,12 @@
       <c r="Z40" s="9" t="n"/>
     </row>
     <row r="41" ht="15.75" customHeight="1" s="220">
-      <c r="A41" s="251" t="inlineStr">
+      <c r="A41" s="248" t="inlineStr">
         <is>
           <t>Yahoo</t>
         </is>
       </c>
-      <c r="B41" s="233" t="inlineStr">
+      <c r="B41" s="232" t="inlineStr">
         <is>
           <t>SnowFlake</t>
         </is>
@@ -24302,17 +24287,17 @@
       <c r="D41" s="227" t="n"/>
       <c r="E41" s="227" t="n"/>
       <c r="F41" s="228" t="n"/>
-      <c r="G41" s="260" t="inlineStr">
+      <c r="G41" s="257" t="inlineStr">
         <is>
           <t>Athena/S3</t>
         </is>
       </c>
-      <c r="H41" s="255" t="n"/>
-      <c r="I41" s="256" t="n"/>
+      <c r="H41" s="252" t="n"/>
+      <c r="I41" s="253" t="n"/>
       <c r="J41" s="9" t="n"/>
       <c r="K41" s="9" t="n"/>
       <c r="L41" s="209" t="n"/>
-      <c r="M41" s="261" t="inlineStr">
+      <c r="M41" s="258" t="inlineStr">
         <is>
           <t>Power BI</t>
         </is>
@@ -24332,7 +24317,7 @@
       <c r="Z41" s="9" t="n"/>
     </row>
     <row r="42" ht="15.75" customHeight="1" s="220">
-      <c r="A42" s="245" t="n"/>
+      <c r="A42" s="242" t="n"/>
       <c r="B42" s="39" t="inlineStr">
         <is>
           <t>Imps_count for 2022-10-09</t>
@@ -24404,7 +24389,7 @@
       <c r="Z42" s="9" t="n"/>
     </row>
     <row r="43" ht="15.75" customHeight="1" s="220">
-      <c r="A43" s="242" t="n"/>
+      <c r="A43" s="239" t="n"/>
       <c r="B43" s="212" t="n">
         <v>93681877</v>
       </c>
@@ -30907,12 +30892,12 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" s="220">
-      <c r="A1" s="251" t="inlineStr">
+      <c r="A1" s="248" t="inlineStr">
         <is>
           <t>Pinterest</t>
         </is>
       </c>
-      <c r="B1" s="233" t="inlineStr">
+      <c r="B1" s="232" t="inlineStr">
         <is>
           <t>SnowFlake</t>
         </is>
@@ -30921,21 +30906,21 @@
       <c r="D1" s="227" t="n"/>
       <c r="E1" s="227" t="n"/>
       <c r="F1" s="228" t="n"/>
-      <c r="G1" s="234" t="inlineStr">
+      <c r="G1" s="233" t="inlineStr">
         <is>
           <t>Athena/S3</t>
         </is>
       </c>
       <c r="H1" s="227" t="n"/>
       <c r="I1" s="228" t="n"/>
-      <c r="J1" s="252" t="inlineStr">
+      <c r="J1" s="249" t="inlineStr">
         <is>
           <t>Looker</t>
         </is>
       </c>
       <c r="K1" s="227" t="n"/>
       <c r="L1" s="228" t="n"/>
-      <c r="M1" s="253" t="inlineStr">
+      <c r="M1" s="250" t="inlineStr">
         <is>
           <t>Power BI</t>
         </is>
@@ -30955,7 +30940,7 @@
       <c r="Z1" s="9" t="n"/>
     </row>
     <row r="2" ht="15.75" customHeight="1" s="220">
-      <c r="A2" s="245" t="n"/>
+      <c r="A2" s="242" t="n"/>
       <c r="B2" s="39" t="inlineStr">
         <is>
           <t>Imps_count for 2022-10-08</t>
@@ -31039,7 +31024,7 @@
       <c r="Z2" s="9" t="n"/>
     </row>
     <row r="3" ht="15.75" customHeight="1" s="220">
-      <c r="A3" s="245" t="n"/>
+      <c r="A3" s="242" t="n"/>
       <c r="B3" s="212" t="n"/>
       <c r="C3" s="212" t="n"/>
       <c r="D3" s="213" t="n"/>
@@ -31079,7 +31064,7 @@
       <c r="Z3" s="9" t="n"/>
     </row>
     <row r="4" ht="15.75" customHeight="1" s="220">
-      <c r="A4" s="242" t="n"/>
+      <c r="A4" s="239" t="n"/>
       <c r="B4" s="34" t="n"/>
       <c r="C4" s="34" t="n"/>
       <c r="D4" s="34" t="n"/>
@@ -31107,12 +31092,12 @@
       <c r="Z4" s="9" t="n"/>
     </row>
     <row r="5" ht="15.75" customHeight="1" s="220">
-      <c r="A5" s="251" t="inlineStr">
+      <c r="A5" s="248" t="inlineStr">
         <is>
           <t>Linkedin</t>
         </is>
       </c>
-      <c r="B5" s="233" t="inlineStr">
+      <c r="B5" s="232" t="inlineStr">
         <is>
           <t>SnowFlake</t>
         </is>
@@ -31121,27 +31106,27 @@
       <c r="D5" s="227" t="n"/>
       <c r="E5" s="227" t="n"/>
       <c r="F5" s="228" t="n"/>
-      <c r="G5" s="234" t="inlineStr">
+      <c r="G5" s="233" t="inlineStr">
         <is>
           <t>Athena/S3</t>
         </is>
       </c>
       <c r="H5" s="227" t="n"/>
       <c r="I5" s="228" t="n"/>
-      <c r="J5" s="252" t="inlineStr">
+      <c r="J5" s="249" t="inlineStr">
         <is>
           <t>Looker</t>
         </is>
       </c>
       <c r="K5" s="227" t="n"/>
       <c r="L5" s="228" t="n"/>
-      <c r="M5" s="254" t="inlineStr">
+      <c r="M5" s="251" t="inlineStr">
         <is>
           <t>Power BI</t>
         </is>
       </c>
-      <c r="N5" s="255" t="n"/>
-      <c r="O5" s="256" t="n"/>
+      <c r="N5" s="252" t="n"/>
+      <c r="O5" s="253" t="n"/>
       <c r="P5" s="9" t="n"/>
       <c r="Q5" s="9" t="n"/>
       <c r="R5" s="9" t="n"/>
@@ -31155,7 +31140,7 @@
       <c r="Z5" s="9" t="n"/>
     </row>
     <row r="6" ht="15.75" customHeight="1" s="220">
-      <c r="A6" s="245" t="n"/>
+      <c r="A6" s="242" t="n"/>
       <c r="B6" s="39" t="inlineStr">
         <is>
           <t>Imps_count for 2022-10-09</t>
@@ -31239,7 +31224,7 @@
       <c r="Z6" s="9" t="n"/>
     </row>
     <row r="7" ht="15.75" customHeight="1" s="220">
-      <c r="A7" s="245" t="n"/>
+      <c r="A7" s="242" t="n"/>
       <c r="B7" s="212" t="n"/>
       <c r="C7" s="212" t="n"/>
       <c r="D7" s="212" t="n"/>
@@ -31279,7 +31264,7 @@
       <c r="Z7" s="9" t="n"/>
     </row>
     <row r="8" ht="15.75" customHeight="1" s="220">
-      <c r="A8" s="242" t="n"/>
+      <c r="A8" s="239" t="n"/>
       <c r="B8" s="34" t="n"/>
       <c r="C8" s="34" t="n"/>
       <c r="D8" s="34" t="n"/>
@@ -31307,12 +31292,12 @@
       <c r="Z8" s="9" t="n"/>
     </row>
     <row r="9" ht="15.75" customHeight="1" s="220">
-      <c r="A9" s="257" t="inlineStr">
+      <c r="A9" s="254" t="inlineStr">
         <is>
           <t>Spotify</t>
         </is>
       </c>
-      <c r="B9" s="233" t="inlineStr">
+      <c r="B9" s="232" t="inlineStr">
         <is>
           <t>SnowFlake</t>
         </is>
@@ -31321,27 +31306,27 @@
       <c r="D9" s="227" t="n"/>
       <c r="E9" s="227" t="n"/>
       <c r="F9" s="228" t="n"/>
-      <c r="G9" s="234" t="inlineStr">
+      <c r="G9" s="233" t="inlineStr">
         <is>
           <t>Athena/S3</t>
         </is>
       </c>
       <c r="H9" s="227" t="n"/>
       <c r="I9" s="228" t="n"/>
-      <c r="J9" s="252" t="inlineStr">
+      <c r="J9" s="249" t="inlineStr">
         <is>
           <t>Looker</t>
         </is>
       </c>
       <c r="K9" s="227" t="n"/>
       <c r="L9" s="228" t="n"/>
-      <c r="M9" s="254" t="inlineStr">
+      <c r="M9" s="251" t="inlineStr">
         <is>
           <t>Power BI</t>
         </is>
       </c>
-      <c r="N9" s="255" t="n"/>
-      <c r="O9" s="256" t="n"/>
+      <c r="N9" s="252" t="n"/>
+      <c r="O9" s="253" t="n"/>
       <c r="P9" s="9" t="n"/>
       <c r="Q9" s="9" t="n"/>
       <c r="R9" s="9" t="n"/>
@@ -31355,7 +31340,7 @@
       <c r="Z9" s="9" t="n"/>
     </row>
     <row r="10" ht="15.75" customHeight="1" s="220">
-      <c r="A10" s="245" t="n"/>
+      <c r="A10" s="242" t="n"/>
       <c r="B10" s="39" t="inlineStr">
         <is>
           <t>Imps_count for 2022-10-09</t>
@@ -31439,7 +31424,7 @@
       <c r="Z10" s="9" t="n"/>
     </row>
     <row r="11" ht="15.75" customHeight="1" s="220">
-      <c r="A11" s="245" t="n"/>
+      <c r="A11" s="242" t="n"/>
       <c r="B11" s="212" t="n"/>
       <c r="C11" s="212" t="n"/>
       <c r="D11" s="213" t="n"/>
@@ -31479,7 +31464,7 @@
       <c r="Z11" s="9" t="n"/>
     </row>
     <row r="12" ht="15.75" customHeight="1" s="220">
-      <c r="A12" s="242" t="n"/>
+      <c r="A12" s="239" t="n"/>
       <c r="B12" s="34" t="n"/>
       <c r="C12" s="34" t="n"/>
       <c r="D12" s="34" t="n"/>
@@ -31507,12 +31492,12 @@
       <c r="Z12" s="9" t="n"/>
     </row>
     <row r="13" ht="15.75" customHeight="1" s="220">
-      <c r="A13" s="251" t="inlineStr">
+      <c r="A13" s="248" t="inlineStr">
         <is>
           <t>Snapchat</t>
         </is>
       </c>
-      <c r="B13" s="233" t="inlineStr">
+      <c r="B13" s="232" t="inlineStr">
         <is>
           <t>SnowFlake</t>
         </is>
@@ -31521,27 +31506,27 @@
       <c r="D13" s="227" t="n"/>
       <c r="E13" s="227" t="n"/>
       <c r="F13" s="228" t="n"/>
-      <c r="G13" s="234" t="inlineStr">
+      <c r="G13" s="233" t="inlineStr">
         <is>
           <t>Athena/S3</t>
         </is>
       </c>
       <c r="H13" s="227" t="n"/>
       <c r="I13" s="228" t="n"/>
-      <c r="J13" s="258" t="inlineStr">
+      <c r="J13" s="255" t="inlineStr">
         <is>
           <t>Looker</t>
         </is>
       </c>
       <c r="K13" s="227" t="n"/>
       <c r="L13" s="228" t="n"/>
-      <c r="M13" s="254" t="inlineStr">
+      <c r="M13" s="251" t="inlineStr">
         <is>
           <t>Power BI</t>
         </is>
       </c>
-      <c r="N13" s="255" t="n"/>
-      <c r="O13" s="256" t="n"/>
+      <c r="N13" s="252" t="n"/>
+      <c r="O13" s="253" t="n"/>
       <c r="P13" s="9" t="n"/>
       <c r="Q13" s="9" t="n"/>
       <c r="R13" s="9" t="n"/>
@@ -31555,7 +31540,7 @@
       <c r="Z13" s="9" t="n"/>
     </row>
     <row r="14" ht="15.75" customHeight="1" s="220">
-      <c r="A14" s="245" t="n"/>
+      <c r="A14" s="242" t="n"/>
       <c r="B14" s="39" t="inlineStr">
         <is>
           <t>Imps_count for 2022-10-09</t>
@@ -31639,7 +31624,7 @@
       <c r="Z14" s="9" t="n"/>
     </row>
     <row r="15" ht="15.75" customHeight="1" s="220">
-      <c r="A15" s="245" t="n"/>
+      <c r="A15" s="242" t="n"/>
       <c r="B15" s="212" t="n"/>
       <c r="C15" s="212" t="n"/>
       <c r="D15" s="212" t="n"/>
@@ -31687,7 +31672,7 @@
       <c r="Z15" s="9" t="n"/>
     </row>
     <row r="16" ht="15.75" customHeight="1" s="220">
-      <c r="A16" s="242" t="n"/>
+      <c r="A16" s="239" t="n"/>
       <c r="B16" s="34" t="n"/>
       <c r="C16" s="34" t="n"/>
       <c r="D16" s="34" t="n"/>
@@ -31715,12 +31700,12 @@
       <c r="Z16" s="9" t="n"/>
     </row>
     <row r="17" ht="15.75" customHeight="1" s="220">
-      <c r="A17" s="251" t="inlineStr">
+      <c r="A17" s="248" t="inlineStr">
         <is>
           <t>Twitter</t>
         </is>
       </c>
-      <c r="B17" s="233" t="inlineStr">
+      <c r="B17" s="232" t="inlineStr">
         <is>
           <t>SnowFlake</t>
         </is>
@@ -31732,20 +31717,20 @@
       <c r="G17" s="9" t="n"/>
       <c r="H17" s="9" t="n"/>
       <c r="I17" s="9" t="n"/>
-      <c r="J17" s="258" t="inlineStr">
+      <c r="J17" s="255" t="inlineStr">
         <is>
           <t>Looker</t>
         </is>
       </c>
       <c r="K17" s="227" t="n"/>
       <c r="L17" s="228" t="n"/>
-      <c r="M17" s="254" t="inlineStr">
+      <c r="M17" s="251" t="inlineStr">
         <is>
           <t>Power BI</t>
         </is>
       </c>
-      <c r="N17" s="255" t="n"/>
-      <c r="O17" s="256" t="n"/>
+      <c r="N17" s="252" t="n"/>
+      <c r="O17" s="253" t="n"/>
       <c r="P17" s="9" t="n"/>
       <c r="Q17" s="9" t="n"/>
       <c r="R17" s="9" t="n"/>
@@ -31759,7 +31744,7 @@
       <c r="Z17" s="9" t="n"/>
     </row>
     <row r="18" ht="15.75" customHeight="1" s="220">
-      <c r="A18" s="245" t="n"/>
+      <c r="A18" s="242" t="n"/>
       <c r="B18" s="39" t="inlineStr">
         <is>
           <t>Imps_count for 2022-10-09</t>
@@ -31831,7 +31816,7 @@
       <c r="Z18" s="9" t="n"/>
     </row>
     <row r="19" ht="15.75" customHeight="1" s="220">
-      <c r="A19" s="245" t="n"/>
+      <c r="A19" s="242" t="n"/>
       <c r="B19" s="212" t="n"/>
       <c r="C19" s="212" t="n"/>
       <c r="D19" s="212" t="n"/>
@@ -31878,7 +31863,7 @@
       <c r="Z19" s="9" t="n"/>
     </row>
     <row r="20" ht="15.75" customHeight="1" s="220">
-      <c r="A20" s="242" t="n"/>
+      <c r="A20" s="239" t="n"/>
       <c r="B20" s="34" t="n"/>
       <c r="C20" s="34" t="n"/>
       <c r="D20" s="34" t="n"/>
@@ -31906,12 +31891,12 @@
       <c r="Z20" s="9" t="n"/>
     </row>
     <row r="21" ht="15.75" customHeight="1" s="220">
-      <c r="A21" s="251" t="inlineStr">
+      <c r="A21" s="248" t="inlineStr">
         <is>
           <t>Facebook</t>
         </is>
       </c>
-      <c r="B21" s="233" t="inlineStr">
+      <c r="B21" s="232" t="inlineStr">
         <is>
           <t>SnowFlake</t>
         </is>
@@ -31920,27 +31905,27 @@
       <c r="D21" s="227" t="n"/>
       <c r="E21" s="227" t="n"/>
       <c r="F21" s="228" t="n"/>
-      <c r="G21" s="234" t="inlineStr">
+      <c r="G21" s="233" t="inlineStr">
         <is>
           <t>Athena/S3</t>
         </is>
       </c>
       <c r="H21" s="227" t="n"/>
       <c r="I21" s="228" t="n"/>
-      <c r="J21" s="258" t="inlineStr">
+      <c r="J21" s="255" t="inlineStr">
         <is>
           <t>Looker</t>
         </is>
       </c>
       <c r="K21" s="227" t="n"/>
       <c r="L21" s="228" t="n"/>
-      <c r="M21" s="254" t="inlineStr">
+      <c r="M21" s="251" t="inlineStr">
         <is>
           <t>Power BI</t>
         </is>
       </c>
-      <c r="N21" s="255" t="n"/>
-      <c r="O21" s="256" t="n"/>
+      <c r="N21" s="252" t="n"/>
+      <c r="O21" s="253" t="n"/>
       <c r="P21" s="9" t="n"/>
       <c r="Q21" s="9" t="n"/>
       <c r="R21" s="9" t="n"/>
@@ -31954,7 +31939,7 @@
       <c r="Z21" s="9" t="n"/>
     </row>
     <row r="22" ht="15.75" customHeight="1" s="220">
-      <c r="A22" s="245" t="n"/>
+      <c r="A22" s="242" t="n"/>
       <c r="B22" s="39" t="inlineStr">
         <is>
           <t>Imps_count for 2022-10-08</t>
@@ -32038,7 +32023,7 @@
       <c r="Z22" s="9" t="n"/>
     </row>
     <row r="23" ht="15.75" customHeight="1" s="220">
-      <c r="A23" s="245" t="n"/>
+      <c r="A23" s="242" t="n"/>
       <c r="B23" s="212" t="n"/>
       <c r="C23" s="212" t="n"/>
       <c r="D23" s="213" t="n"/>
@@ -32088,7 +32073,7 @@
       <c r="Z23" s="9" t="n"/>
     </row>
     <row r="24" ht="15.75" customHeight="1" s="220">
-      <c r="A24" s="242" t="n"/>
+      <c r="A24" s="239" t="n"/>
       <c r="B24" s="34" t="n"/>
       <c r="C24" s="34" t="n"/>
       <c r="D24" s="34" t="n"/>
@@ -32116,12 +32101,12 @@
       <c r="Z24" s="9" t="n"/>
     </row>
     <row r="25" ht="15.75" customHeight="1" s="220">
-      <c r="A25" s="251" t="inlineStr">
+      <c r="A25" s="248" t="inlineStr">
         <is>
           <t>Youtube - Google Ads</t>
         </is>
       </c>
-      <c r="B25" s="233" t="inlineStr">
+      <c r="B25" s="232" t="inlineStr">
         <is>
           <t>SnowFlake</t>
         </is>
@@ -32133,7 +32118,7 @@
       <c r="G25" s="9" t="n"/>
       <c r="H25" s="9" t="n"/>
       <c r="I25" s="200" t="n"/>
-      <c r="J25" s="259" t="inlineStr">
+      <c r="J25" s="256" t="inlineStr">
         <is>
           <t>Looker</t>
         </is>
@@ -32156,7 +32141,7 @@
       <c r="Z25" s="9" t="n"/>
     </row>
     <row r="26" ht="15.75" customHeight="1" s="220">
-      <c r="A26" s="245" t="n"/>
+      <c r="A26" s="242" t="n"/>
       <c r="B26" s="39" t="inlineStr">
         <is>
           <t>Imps_count for 2022-10-09</t>
@@ -32216,7 +32201,7 @@
       <c r="Z26" s="9" t="n"/>
     </row>
     <row r="27" ht="15.75" customHeight="1" s="220">
-      <c r="A27" s="245" t="n"/>
+      <c r="A27" s="242" t="n"/>
       <c r="B27" s="212" t="n"/>
       <c r="C27" s="212" t="n"/>
       <c r="D27" s="212" t="n"/>
@@ -32254,7 +32239,7 @@
       <c r="Z27" s="9" t="n"/>
     </row>
     <row r="28" ht="15.75" customHeight="1" s="220">
-      <c r="A28" s="242" t="n"/>
+      <c r="A28" s="239" t="n"/>
       <c r="B28" s="34" t="n"/>
       <c r="C28" s="34" t="n"/>
       <c r="D28" s="34" t="n"/>
@@ -32282,12 +32267,12 @@
       <c r="Z28" s="9" t="n"/>
     </row>
     <row r="29" ht="15.75" customHeight="1" s="220">
-      <c r="A29" s="251" t="inlineStr">
+      <c r="A29" s="248" t="inlineStr">
         <is>
           <t>Youtube - DV 360</t>
         </is>
       </c>
-      <c r="B29" s="233" t="inlineStr">
+      <c r="B29" s="232" t="inlineStr">
         <is>
           <t>SnowFlake</t>
         </is>
@@ -32299,7 +32284,7 @@
       <c r="G29" s="207" t="n"/>
       <c r="H29" s="207" t="n"/>
       <c r="I29" s="195" t="n"/>
-      <c r="J29" s="258" t="inlineStr">
+      <c r="J29" s="255" t="inlineStr">
         <is>
           <t>Looker</t>
         </is>
@@ -32322,7 +32307,7 @@
       <c r="Z29" s="9" t="n"/>
     </row>
     <row r="30" ht="15.75" customHeight="1" s="220">
-      <c r="A30" s="245" t="n"/>
+      <c r="A30" s="242" t="n"/>
       <c r="B30" s="39" t="inlineStr">
         <is>
           <t>Imps_count for 2022-10-09</t>
@@ -32382,7 +32367,7 @@
       <c r="Z30" s="9" t="n"/>
     </row>
     <row r="31" ht="15.75" customHeight="1" s="220">
-      <c r="A31" s="245" t="n"/>
+      <c r="A31" s="242" t="n"/>
       <c r="B31" s="212" t="n"/>
       <c r="C31" s="212" t="n"/>
       <c r="D31" s="212" t="n"/>
@@ -32420,7 +32405,7 @@
       <c r="Z31" s="9" t="n"/>
     </row>
     <row r="32" ht="15.75" customHeight="1" s="220">
-      <c r="A32" s="242" t="n"/>
+      <c r="A32" s="239" t="n"/>
       <c r="B32" s="34" t="n"/>
       <c r="C32" s="34" t="n"/>
       <c r="D32" s="34" t="n"/>
@@ -32448,12 +32433,12 @@
       <c r="Z32" s="9" t="n"/>
     </row>
     <row r="33" ht="15.75" customHeight="1" s="220">
-      <c r="A33" s="251" t="inlineStr">
+      <c r="A33" s="248" t="inlineStr">
         <is>
           <t>Youtube - Partner Sold</t>
         </is>
       </c>
-      <c r="B33" s="233" t="inlineStr">
+      <c r="B33" s="232" t="inlineStr">
         <is>
           <t>SnowFlake</t>
         </is>
@@ -32465,7 +32450,7 @@
       <c r="G33" s="207" t="n"/>
       <c r="H33" s="207" t="n"/>
       <c r="I33" s="195" t="n"/>
-      <c r="J33" s="258" t="inlineStr">
+      <c r="J33" s="255" t="inlineStr">
         <is>
           <t>Looker</t>
         </is>
@@ -32488,7 +32473,7 @@
       <c r="Z33" s="9" t="n"/>
     </row>
     <row r="34" ht="15.75" customHeight="1" s="220">
-      <c r="A34" s="245" t="n"/>
+      <c r="A34" s="242" t="n"/>
       <c r="B34" s="39" t="inlineStr">
         <is>
           <t>Imps_count for 2022-10-09</t>
@@ -32548,7 +32533,7 @@
       <c r="Z34" s="9" t="n"/>
     </row>
     <row r="35" ht="15.75" customHeight="1" s="220">
-      <c r="A35" s="245" t="n"/>
+      <c r="A35" s="242" t="n"/>
       <c r="B35" s="212" t="n"/>
       <c r="C35" s="212" t="n"/>
       <c r="D35" s="212" t="n"/>
@@ -32586,7 +32571,7 @@
       <c r="Z35" s="9" t="n"/>
     </row>
     <row r="36" ht="15.75" customHeight="1" s="220">
-      <c r="A36" s="242" t="n"/>
+      <c r="A36" s="239" t="n"/>
       <c r="B36" s="34" t="n"/>
       <c r="C36" s="34" t="n"/>
       <c r="D36" s="34" t="n"/>
@@ -32614,12 +32599,12 @@
       <c r="Z36" s="9" t="n"/>
     </row>
     <row r="37" ht="15.75" customHeight="1" s="220">
-      <c r="A37" s="251" t="inlineStr">
+      <c r="A37" s="248" t="inlineStr">
         <is>
           <t>Youtube - Reserve</t>
         </is>
       </c>
-      <c r="B37" s="233" t="inlineStr">
+      <c r="B37" s="232" t="inlineStr">
         <is>
           <t>SnowFlake</t>
         </is>
@@ -32631,7 +32616,7 @@
       <c r="G37" s="207" t="n"/>
       <c r="H37" s="207" t="n"/>
       <c r="I37" s="196" t="n"/>
-      <c r="J37" s="258" t="inlineStr">
+      <c r="J37" s="255" t="inlineStr">
         <is>
           <t>Looker</t>
         </is>
@@ -32654,7 +32639,7 @@
       <c r="Z37" s="9" t="n"/>
     </row>
     <row r="38" ht="15.75" customHeight="1" s="220">
-      <c r="A38" s="245" t="n"/>
+      <c r="A38" s="242" t="n"/>
       <c r="B38" s="39" t="inlineStr">
         <is>
           <t>Imps_count for 2022-10-09</t>
@@ -32714,7 +32699,7 @@
       <c r="Z38" s="9" t="n"/>
     </row>
     <row r="39" ht="15.75" customHeight="1" s="220">
-      <c r="A39" s="245" t="n"/>
+      <c r="A39" s="242" t="n"/>
       <c r="B39" s="212" t="n"/>
       <c r="C39" s="212" t="n"/>
       <c r="D39" s="212" t="n"/>
@@ -32752,7 +32737,7 @@
       <c r="Z39" s="9" t="n"/>
     </row>
     <row r="40" ht="15.75" customHeight="1" s="220">
-      <c r="A40" s="242" t="n"/>
+      <c r="A40" s="239" t="n"/>
       <c r="B40" s="34" t="n"/>
       <c r="C40" s="34" t="n"/>
       <c r="D40" s="34" t="n"/>
@@ -32780,12 +32765,12 @@
       <c r="Z40" s="9" t="n"/>
     </row>
     <row r="41" ht="15.75" customHeight="1" s="220">
-      <c r="A41" s="251" t="inlineStr">
+      <c r="A41" s="248" t="inlineStr">
         <is>
           <t>Yahoo</t>
         </is>
       </c>
-      <c r="B41" s="233" t="inlineStr">
+      <c r="B41" s="232" t="inlineStr">
         <is>
           <t>SnowFlake</t>
         </is>
@@ -32794,17 +32779,17 @@
       <c r="D41" s="227" t="n"/>
       <c r="E41" s="227" t="n"/>
       <c r="F41" s="228" t="n"/>
-      <c r="G41" s="260" t="inlineStr">
+      <c r="G41" s="257" t="inlineStr">
         <is>
           <t>Athena/S3</t>
         </is>
       </c>
-      <c r="H41" s="255" t="n"/>
-      <c r="I41" s="256" t="n"/>
+      <c r="H41" s="252" t="n"/>
+      <c r="I41" s="253" t="n"/>
       <c r="J41" s="9" t="n"/>
       <c r="K41" s="9" t="n"/>
       <c r="L41" s="209" t="n"/>
-      <c r="M41" s="261" t="inlineStr">
+      <c r="M41" s="258" t="inlineStr">
         <is>
           <t>Power BI</t>
         </is>
@@ -32824,7 +32809,7 @@
       <c r="Z41" s="9" t="n"/>
     </row>
     <row r="42" ht="15.75" customHeight="1" s="220">
-      <c r="A42" s="245" t="n"/>
+      <c r="A42" s="242" t="n"/>
       <c r="B42" s="39" t="inlineStr">
         <is>
           <t>Imps_count for 2022-10-09</t>
@@ -32896,7 +32881,7 @@
       <c r="Z42" s="9" t="n"/>
     </row>
     <row r="43" ht="15.75" customHeight="1" s="220">
-      <c r="A43" s="242" t="n"/>
+      <c r="A43" s="239" t="n"/>
       <c r="B43" s="212" t="n"/>
       <c r="C43" s="212" t="n"/>
       <c r="D43" s="212" t="n"/>
